--- a/att.xlsx
+++ b/att.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -28,18 +28,6 @@
     <t>10000=100%</t>
   </si>
   <si>
-    <t>0: 物理 -1: 地系 -2：火系 -3: 水系 -4: 风系 -5: 时系 -6: 空系 -7: 幻系 -8: 光系 -9: 暗系</t>
-  </si>
-  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -91,10 +79,64 @@
     <t>Rage</t>
   </si>
   <si>
-    <t>DmgTypes</t>
-  </si>
-  <si>
-    <t>ResTypes</t>
+    <t>DmgPhysics</t>
+  </si>
+  <si>
+    <t>DmgEarth</t>
+  </si>
+  <si>
+    <t>DmgWater</t>
+  </si>
+  <si>
+    <t>DmgFire</t>
+  </si>
+  <si>
+    <t>DmgWind</t>
+  </si>
+  <si>
+    <t>DmgTime</t>
+  </si>
+  <si>
+    <t>DmgSpace</t>
+  </si>
+  <si>
+    <t>DmgMirage</t>
+  </si>
+  <si>
+    <t>DmgLight</t>
+  </si>
+  <si>
+    <t>DmgDark</t>
+  </si>
+  <si>
+    <t>ResPhysics</t>
+  </si>
+  <si>
+    <t>ResEarth</t>
+  </si>
+  <si>
+    <t>ResWater</t>
+  </si>
+  <si>
+    <t>ResFire</t>
+  </si>
+  <si>
+    <t>ResWind</t>
+  </si>
+  <si>
+    <t>ResTime</t>
+  </si>
+  <si>
+    <t>ResSpace</t>
+  </si>
+  <si>
+    <t>ResMirage</t>
+  </si>
+  <si>
+    <t>ResLight</t>
+  </si>
+  <si>
+    <t>ResDark</t>
   </si>
   <si>
     <t>导出字段描述</t>
@@ -148,10 +190,64 @@
     <t>怒气</t>
   </si>
   <si>
-    <t>各系伤害加成</t>
-  </si>
-  <si>
-    <t>各系伤害抗性</t>
+    <t>物理系伤害加成</t>
+  </si>
+  <si>
+    <t>地系伤害加成</t>
+  </si>
+  <si>
+    <t>水系伤害加成</t>
+  </si>
+  <si>
+    <t>火系伤害加成</t>
+  </si>
+  <si>
+    <t>风系伤害加成</t>
+  </si>
+  <si>
+    <t>时系伤害加成</t>
+  </si>
+  <si>
+    <t>空系伤害加成</t>
+  </si>
+  <si>
+    <t>幻系伤害加成</t>
+  </si>
+  <si>
+    <t>光系伤害加成</t>
+  </si>
+  <si>
+    <t>暗系伤害加成</t>
+  </si>
+  <si>
+    <t>物理系伤害抗性</t>
+  </si>
+  <si>
+    <t>地系伤害抗性</t>
+  </si>
+  <si>
+    <t>水系伤害抗性</t>
+  </si>
+  <si>
+    <t>火系伤害抗性</t>
+  </si>
+  <si>
+    <t>风系伤害抗性</t>
+  </si>
+  <si>
+    <t>时系伤害抗性</t>
+  </si>
+  <si>
+    <t>空系伤害抗性</t>
+  </si>
+  <si>
+    <t>幻系伤害抗性</t>
+  </si>
+  <si>
+    <t>光系伤害抗性</t>
+  </si>
+  <si>
+    <t>暗系伤害抗性</t>
   </si>
   <si>
     <t>客户端导出字段类型</t>
@@ -169,34 +265,16 @@
     <t>int32</t>
   </si>
   <si>
-    <t>[]int32</t>
-  </si>
-  <si>
-    <t>默认属性</t>
+    <t>霜之哀伤基础属性</t>
+  </si>
+  <si>
+    <t>梅林基础属性</t>
+  </si>
+  <si>
+    <t>砰砰博士基础属性</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>99999</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>霜之哀伤基础属性</t>
-  </si>
-  <si>
-    <t>梅林基础属性</t>
-  </si>
-  <si>
-    <t>砰砰博士基础属性</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
   </si>
   <si>
     <t>洛基基础属性</t>
@@ -398,7 +476,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -432,9 +510,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -458,6 +533,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1576,7 +1657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1598,8 +1679,8 @@
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.85156" style="1" customWidth="1"/>
     <col min="16" max="18" width="8" style="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="19" max="38" width="13" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
@@ -1627,6 +1708,24 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
     </row>
     <row r="2" ht="113" customHeight="1">
       <c r="A2" s="3"/>
@@ -1653,149 +1752,271 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="T2" t="s" s="5">
-        <v>5</v>
-      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3" ht="16.15" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="D3" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="E3" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="F3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="G3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="H3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="I3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="J3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="J3" t="s" s="7">
+      <c r="K3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="K3" t="s" s="7">
+      <c r="L3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="L3" t="s" s="7">
+      <c r="M3" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="M3" t="s" s="7">
+      <c r="N3" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="N3" t="s" s="7">
+      <c r="O3" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="O3" t="s" s="8">
+      <c r="P3" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="P3" t="s" s="9">
+      <c r="Q3" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="Q3" t="s" s="8">
+      <c r="R3" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="R3" t="s" s="10">
+      <c r="S3" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="S3" t="s" s="10">
+      <c r="T3" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="T3" t="s" s="10">
+      <c r="U3" t="s" s="10">
         <v>24</v>
+      </c>
+      <c r="V3" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="W3" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="X3" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="Y3" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="Z3" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="AC3" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="AD3" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="AE3" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="AG3" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="AH3" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="AI3" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="AK3" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="AL3" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" t="s" s="6">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="7">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s" s="7">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s" s="7">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s" s="7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="7">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s" s="7">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="7">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="7">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s" s="7">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s" s="7">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N4" t="s" s="7">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s" s="8">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s" s="9">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="Q4" t="s" s="8">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s" s="10">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s" s="10">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s" s="10">
-        <v>43</v>
+        <v>60</v>
+      </c>
+      <c r="U4" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="V4" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="W4" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="Z4" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="AA4" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="AB4" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="AC4" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="AD4" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="AG4" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="AH4" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="AI4" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="AK4" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="AL4" t="s" s="10">
+        <v>78</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" t="s" s="6">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s" s="7">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s" s="7">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s" s="7">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="7">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1811,664 +2032,1274 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" t="s" s="6">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s" s="8">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s" s="9">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="Q6" t="s" s="8">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="R6" t="s" s="10">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="S6" t="s" s="10">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="T6" t="s" s="10">
-        <v>49</v>
+        <v>83</v>
+      </c>
+      <c r="U6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="V6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="W6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="Z6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AA6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AB6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AC6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AD6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AE6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AF6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AG6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AH6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AI6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AJ6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AK6" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AL6" t="s" s="10">
+        <v>83</v>
       </c>
     </row>
-    <row r="7" ht="16.15" customHeight="1">
+    <row r="7" ht="14.65" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="7"/>
-      <c r="D7" t="s" s="7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="E7" s="13">
+        <v>100</v>
+      </c>
+      <c r="F7" s="13">
         <v>50</v>
       </c>
-      <c r="E7" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="N7" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="O7" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="P7" t="s" s="9">
-        <v>52</v>
-      </c>
-      <c r="Q7" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="R7" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="S7" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="T7" t="s" s="10">
-        <v>54</v>
+      <c r="G7" s="13">
+        <v>10</v>
+      </c>
+      <c r="H7" s="13">
+        <v>30</v>
+      </c>
+      <c r="I7" s="13">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="13">
+        <v>3000</v>
+      </c>
+      <c r="K7" s="13">
+        <v>500</v>
+      </c>
+      <c r="L7" s="13">
+        <v>120</v>
+      </c>
+      <c r="M7" s="13">
+        <v>100</v>
+      </c>
+      <c r="N7" s="13">
+        <v>100</v>
+      </c>
+      <c r="O7" s="13">
+        <v>1200</v>
+      </c>
+      <c r="P7" s="13">
+        <v>1200</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="13">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0</v>
+      </c>
+      <c r="W7" s="13">
+        <v>0</v>
+      </c>
+      <c r="X7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.65" customHeight="1">
+    <row r="8" ht="14" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="13">
-        <v>55</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>85</v>
+      </c>
+      <c r="E8" s="17">
+        <v>12</v>
+      </c>
+      <c r="F8" s="17">
+        <v>11</v>
+      </c>
+      <c r="G8" s="17">
+        <v>5</v>
+      </c>
+      <c r="H8" s="17">
+        <v>60</v>
+      </c>
+      <c r="I8" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1200</v>
+      </c>
+      <c r="L8" s="17">
+        <v>50</v>
+      </c>
+      <c r="M8" s="17">
+        <v>60</v>
+      </c>
+      <c r="N8" s="17">
         <v>100</v>
       </c>
-      <c r="F8" s="14">
-        <v>50</v>
-      </c>
-      <c r="G8" s="14">
-        <v>10</v>
-      </c>
-      <c r="H8" s="14">
-        <v>30</v>
-      </c>
-      <c r="I8" s="14">
-        <v>10000</v>
-      </c>
-      <c r="J8" s="14">
-        <v>3000</v>
-      </c>
-      <c r="K8" s="14">
-        <v>500</v>
-      </c>
-      <c r="L8" s="14">
-        <v>120</v>
-      </c>
-      <c r="M8" s="14">
-        <v>100</v>
-      </c>
-      <c r="N8" s="14">
-        <v>100</v>
-      </c>
-      <c r="O8" s="14">
-        <v>1200</v>
-      </c>
-      <c r="P8" s="14">
-        <v>1200</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0</v>
-      </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="O8" s="17">
+        <v>1300</v>
+      </c>
+      <c r="P8" s="17">
+        <v>1300</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18"/>
+      <c r="S8" s="17">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
+        <v>0</v>
+      </c>
+      <c r="W8" s="17">
+        <v>0</v>
+      </c>
+      <c r="X8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" ht="14.65" customHeight="1">
+    <row r="9" ht="25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="16">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s" s="17">
-        <v>56</v>
-      </c>
-      <c r="E9" s="18">
-        <v>12</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s" s="16">
+        <v>86</v>
+      </c>
+      <c r="E9" s="17">
         <v>11</v>
       </c>
-      <c r="G9" s="18">
-        <v>5</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="F9" s="17">
+        <v>15</v>
+      </c>
+      <c r="G9" s="17">
+        <v>7</v>
+      </c>
+      <c r="H9" s="17">
+        <v>53</v>
+      </c>
+      <c r="I9" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1700</v>
+      </c>
+      <c r="K9" s="17">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="17">
+        <v>70</v>
+      </c>
+      <c r="M9" s="17">
         <v>60</v>
       </c>
-      <c r="I9" s="18">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="18">
-        <v>1500</v>
-      </c>
-      <c r="K9" s="18">
-        <v>1200</v>
-      </c>
-      <c r="L9" s="18">
-        <v>50</v>
-      </c>
-      <c r="M9" s="18">
-        <v>60</v>
-      </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <v>100</v>
       </c>
-      <c r="O9" s="18">
-        <v>1300</v>
-      </c>
-      <c r="P9" s="18">
-        <v>1300</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>0</v>
-      </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="O9" s="17">
+        <v>1400</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1400</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18"/>
+      <c r="S9" s="17">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
+        <v>0</v>
+      </c>
+      <c r="X9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="AD9" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="AE9" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="AF9" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="AG9" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="AH9" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="AJ9" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="AK9" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="AL9" t="s" s="19">
+        <v>87</v>
+      </c>
     </row>
-    <row r="10" ht="25" customHeight="1">
+    <row r="10" ht="14.65" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="16">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s" s="17">
-        <v>57</v>
-      </c>
-      <c r="E10" s="18">
-        <v>11</v>
-      </c>
-      <c r="F10" s="18">
-        <v>15</v>
-      </c>
-      <c r="G10" s="18">
-        <v>7</v>
-      </c>
-      <c r="H10" s="18">
-        <v>53</v>
-      </c>
-      <c r="I10" s="18">
+      <c r="C10" s="15">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>88</v>
+      </c>
+      <c r="E10" s="17">
+        <v>100</v>
+      </c>
+      <c r="F10" s="17">
+        <v>50</v>
+      </c>
+      <c r="G10" s="17">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17">
+        <v>30</v>
+      </c>
+      <c r="I10" s="17">
         <v>10000</v>
       </c>
-      <c r="J10" s="18">
-        <v>1700</v>
-      </c>
-      <c r="K10" s="18">
+      <c r="J10" s="17">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="17">
+        <v>500</v>
+      </c>
+      <c r="L10" s="17">
+        <v>120</v>
+      </c>
+      <c r="M10" s="17">
+        <v>100</v>
+      </c>
+      <c r="N10" s="17">
+        <v>100</v>
+      </c>
+      <c r="O10" s="17">
+        <v>1500</v>
+      </c>
+      <c r="P10" s="17">
+        <v>1500</v>
+      </c>
+      <c r="Q10" s="17">
         <v>1000</v>
       </c>
-      <c r="L10" s="18">
-        <v>70</v>
-      </c>
-      <c r="M10" s="18">
-        <v>60</v>
-      </c>
-      <c r="N10" s="18">
-        <v>100</v>
-      </c>
-      <c r="O10" s="18">
-        <v>1400</v>
-      </c>
-      <c r="P10" s="18">
-        <v>1400</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>0</v>
-      </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" t="s" s="17">
-        <v>58</v>
+      <c r="R10" s="18"/>
+      <c r="S10" s="17">
+        <v>0</v>
+      </c>
+      <c r="T10" s="17">
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
+        <v>0</v>
+      </c>
+      <c r="X10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="14.65" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="17">
-        <v>59</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s" s="16">
+        <v>89</v>
+      </c>
+      <c r="E11" s="17">
+        <v>189</v>
+      </c>
+      <c r="F11" s="17">
+        <v>85</v>
+      </c>
+      <c r="G11" s="17">
+        <v>13</v>
+      </c>
+      <c r="H11" s="17">
+        <v>30</v>
+      </c>
+      <c r="I11" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J11" s="17">
+        <v>4300</v>
+      </c>
+      <c r="K11" s="17">
+        <v>500</v>
+      </c>
+      <c r="L11" s="17">
+        <v>170</v>
+      </c>
+      <c r="M11" s="17">
+        <v>140</v>
+      </c>
+      <c r="N11" s="17">
         <v>100</v>
       </c>
-      <c r="F11" s="18">
-        <v>50</v>
-      </c>
-      <c r="G11" s="18">
-        <v>10</v>
-      </c>
-      <c r="H11" s="18">
-        <v>30</v>
-      </c>
-      <c r="I11" s="18">
-        <v>10000</v>
-      </c>
-      <c r="J11" s="18">
-        <v>3000</v>
-      </c>
-      <c r="K11" s="18">
-        <v>500</v>
-      </c>
-      <c r="L11" s="18">
-        <v>120</v>
-      </c>
-      <c r="M11" s="18">
-        <v>100</v>
-      </c>
-      <c r="N11" s="18">
-        <v>100</v>
-      </c>
-      <c r="O11" s="18">
-        <v>1500</v>
-      </c>
-      <c r="P11" s="18">
-        <v>1500</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>1000</v>
-      </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="O11" s="17">
+        <v>1600</v>
+      </c>
+      <c r="P11" s="17">
+        <v>1600</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18"/>
+      <c r="S11" s="17">
+        <v>0</v>
+      </c>
+      <c r="T11" s="17">
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
+        <v>0</v>
+      </c>
+      <c r="V11" s="17">
+        <v>0</v>
+      </c>
+      <c r="W11" s="17">
+        <v>0</v>
+      </c>
+      <c r="X11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="14.65" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="16">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="17">
+      <c r="C12" s="15">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="16">
+        <v>90</v>
+      </c>
+      <c r="E12" s="17">
+        <v>278</v>
+      </c>
+      <c r="F12" s="17">
+        <v>120</v>
+      </c>
+      <c r="G12" s="17">
+        <v>16</v>
+      </c>
+      <c r="H12" s="17">
         <v>60</v>
       </c>
-      <c r="E12" s="18">
-        <v>189</v>
-      </c>
-      <c r="F12" s="18">
-        <v>85</v>
-      </c>
-      <c r="G12" s="18">
-        <v>13</v>
-      </c>
-      <c r="H12" s="18">
-        <v>30</v>
-      </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>10000</v>
       </c>
-      <c r="J12" s="18">
-        <v>4300</v>
-      </c>
-      <c r="K12" s="18">
-        <v>500</v>
-      </c>
-      <c r="L12" s="18">
-        <v>170</v>
-      </c>
-      <c r="M12" s="18">
-        <v>140</v>
-      </c>
-      <c r="N12" s="18">
+      <c r="J12" s="17">
+        <v>5600</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1200</v>
+      </c>
+      <c r="L12" s="17">
+        <v>220</v>
+      </c>
+      <c r="M12" s="17">
+        <v>180</v>
+      </c>
+      <c r="N12" s="17">
         <v>100</v>
       </c>
-      <c r="O12" s="18">
-        <v>1600</v>
-      </c>
-      <c r="P12" s="18">
-        <v>1600</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>0</v>
-      </c>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="O12" s="17">
+        <v>1700</v>
+      </c>
+      <c r="P12" s="17">
+        <v>1700</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18"/>
+      <c r="S12" s="17">
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
+        <v>0</v>
+      </c>
+      <c r="U12" s="17">
+        <v>0</v>
+      </c>
+      <c r="V12" s="17">
+        <v>0</v>
+      </c>
+      <c r="W12" s="17">
+        <v>0</v>
+      </c>
+      <c r="X12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="14.65" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="16">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="E13" s="18">
-        <v>278</v>
-      </c>
-      <c r="F13" s="18">
-        <v>120</v>
-      </c>
-      <c r="G13" s="18">
-        <v>16</v>
-      </c>
-      <c r="H13" s="18">
-        <v>60</v>
-      </c>
-      <c r="I13" s="18">
+      <c r="C13" s="15">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s" s="16">
+        <v>91</v>
+      </c>
+      <c r="E13" s="17">
+        <v>367</v>
+      </c>
+      <c r="F13" s="17">
+        <v>155</v>
+      </c>
+      <c r="G13" s="17">
+        <v>19</v>
+      </c>
+      <c r="H13" s="17">
+        <v>53</v>
+      </c>
+      <c r="I13" s="17">
         <v>10000</v>
       </c>
-      <c r="J13" s="18">
-        <v>5600</v>
-      </c>
-      <c r="K13" s="18">
-        <v>1200</v>
-      </c>
-      <c r="L13" s="18">
+      <c r="J13" s="17">
+        <v>6900</v>
+      </c>
+      <c r="K13" s="17">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="17">
+        <v>270</v>
+      </c>
+      <c r="M13" s="17">
         <v>220</v>
       </c>
-      <c r="M13" s="18">
-        <v>180</v>
-      </c>
-      <c r="N13" s="18">
+      <c r="N13" s="17">
         <v>100</v>
       </c>
-      <c r="O13" s="18">
-        <v>1700</v>
-      </c>
-      <c r="P13" s="18">
-        <v>1700</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>0</v>
-      </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="O13" s="17">
+        <v>1800</v>
+      </c>
+      <c r="P13" s="17">
+        <v>1800</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>0</v>
+      </c>
+      <c r="R13" s="18"/>
+      <c r="S13" s="17">
+        <v>0</v>
+      </c>
+      <c r="T13" s="17">
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <v>0</v>
+      </c>
+      <c r="V13" s="17">
+        <v>0</v>
+      </c>
+      <c r="W13" s="17">
+        <v>0</v>
+      </c>
+      <c r="X13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="14.65" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="16">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s" s="17">
-        <v>62</v>
-      </c>
-      <c r="E14" s="18">
-        <v>367</v>
-      </c>
-      <c r="F14" s="18">
-        <v>155</v>
-      </c>
-      <c r="G14" s="18">
-        <v>19</v>
-      </c>
-      <c r="H14" s="18">
-        <v>53</v>
-      </c>
-      <c r="I14" s="18">
+      <c r="C14" s="15">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s" s="16">
+        <v>92</v>
+      </c>
+      <c r="E14" s="17">
+        <v>456</v>
+      </c>
+      <c r="F14" s="17">
+        <v>190</v>
+      </c>
+      <c r="G14" s="17">
+        <v>22</v>
+      </c>
+      <c r="H14" s="17">
+        <v>30</v>
+      </c>
+      <c r="I14" s="17">
         <v>10000</v>
       </c>
-      <c r="J14" s="18">
-        <v>6900</v>
-      </c>
-      <c r="K14" s="18">
+      <c r="J14" s="17">
+        <v>8200</v>
+      </c>
+      <c r="K14" s="17">
+        <v>500</v>
+      </c>
+      <c r="L14" s="17">
+        <v>320</v>
+      </c>
+      <c r="M14" s="17">
+        <v>260</v>
+      </c>
+      <c r="N14" s="17">
+        <v>100</v>
+      </c>
+      <c r="O14" s="17">
+        <v>1900</v>
+      </c>
+      <c r="P14" s="17">
+        <v>1900</v>
+      </c>
+      <c r="Q14" s="17">
         <v>1000</v>
       </c>
-      <c r="L14" s="18">
-        <v>270</v>
-      </c>
-      <c r="M14" s="18">
-        <v>220</v>
-      </c>
-      <c r="N14" s="18">
-        <v>100</v>
-      </c>
-      <c r="O14" s="18">
-        <v>1800</v>
-      </c>
-      <c r="P14" s="18">
-        <v>1800</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="17">
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <v>0</v>
+      </c>
+      <c r="V14" s="17">
+        <v>0</v>
+      </c>
+      <c r="W14" s="17">
+        <v>0</v>
+      </c>
+      <c r="X14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="14.65" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="16">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s" s="17">
-        <v>63</v>
-      </c>
-      <c r="E15" s="18">
-        <v>456</v>
-      </c>
-      <c r="F15" s="18">
-        <v>190</v>
-      </c>
-      <c r="G15" s="18">
-        <v>22</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="C15" s="15">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="16">
+        <v>93</v>
+      </c>
+      <c r="E15" s="17">
+        <v>545</v>
+      </c>
+      <c r="F15" s="17">
+        <v>225</v>
+      </c>
+      <c r="G15" s="17">
+        <v>25</v>
+      </c>
+      <c r="H15" s="17">
         <v>30</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>10000</v>
       </c>
-      <c r="J15" s="18">
-        <v>8200</v>
-      </c>
-      <c r="K15" s="18">
+      <c r="J15" s="17">
+        <v>9500</v>
+      </c>
+      <c r="K15" s="17">
         <v>500</v>
       </c>
-      <c r="L15" s="18">
-        <v>320</v>
-      </c>
-      <c r="M15" s="18">
-        <v>260</v>
-      </c>
-      <c r="N15" s="18">
+      <c r="L15" s="17">
+        <v>370</v>
+      </c>
+      <c r="M15" s="17">
+        <v>300</v>
+      </c>
+      <c r="N15" s="17">
         <v>100</v>
       </c>
-      <c r="O15" s="18">
-        <v>1900</v>
-      </c>
-      <c r="P15" s="18">
-        <v>1900</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>1000</v>
-      </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
+      <c r="O15" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P15" s="17">
+        <v>2000</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>0</v>
+      </c>
+      <c r="R15" s="18"/>
+      <c r="S15" s="17">
+        <v>0</v>
+      </c>
+      <c r="T15" s="17">
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <v>0</v>
+      </c>
+      <c r="V15" s="17">
+        <v>0</v>
+      </c>
+      <c r="W15" s="17">
+        <v>0</v>
+      </c>
+      <c r="X15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="14.65" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="16">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s" s="17">
-        <v>64</v>
-      </c>
-      <c r="E16" s="18">
-        <v>545</v>
-      </c>
-      <c r="F16" s="18">
-        <v>225</v>
-      </c>
-      <c r="G16" s="18">
-        <v>25</v>
-      </c>
-      <c r="H16" s="18">
-        <v>30</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="C16" s="15">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s" s="16">
+        <v>94</v>
+      </c>
+      <c r="E16" s="17">
+        <v>634</v>
+      </c>
+      <c r="F16" s="17">
+        <v>260</v>
+      </c>
+      <c r="G16" s="17">
+        <v>28</v>
+      </c>
+      <c r="H16" s="17">
+        <v>60</v>
+      </c>
+      <c r="I16" s="17">
         <v>10000</v>
       </c>
-      <c r="J16" s="18">
-        <v>9500</v>
-      </c>
-      <c r="K16" s="18">
-        <v>500</v>
-      </c>
-      <c r="L16" s="18">
-        <v>370</v>
-      </c>
-      <c r="M16" s="18">
-        <v>300</v>
-      </c>
-      <c r="N16" s="18">
+      <c r="J16" s="17">
+        <v>10800</v>
+      </c>
+      <c r="K16" s="17">
+        <v>1200</v>
+      </c>
+      <c r="L16" s="17">
+        <v>420</v>
+      </c>
+      <c r="M16" s="17">
+        <v>340</v>
+      </c>
+      <c r="N16" s="17">
         <v>100</v>
       </c>
-      <c r="O16" s="18">
-        <v>2000</v>
-      </c>
-      <c r="P16" s="18">
-        <v>2000</v>
-      </c>
-      <c r="Q16" s="18">
-        <v>0</v>
-      </c>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
+      <c r="O16" s="17">
+        <v>2100</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="17">
+        <v>0</v>
+      </c>
+      <c r="R16" s="18"/>
+      <c r="S16" s="17">
+        <v>0</v>
+      </c>
+      <c r="T16" s="17">
+        <v>0</v>
+      </c>
+      <c r="U16" s="17">
+        <v>0</v>
+      </c>
+      <c r="V16" s="17">
+        <v>0</v>
+      </c>
+      <c r="W16" s="17">
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" ht="14.65" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="16">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="E17" s="18">
-        <v>634</v>
-      </c>
-      <c r="F17" s="18">
-        <v>260</v>
-      </c>
-      <c r="G17" s="18">
-        <v>28</v>
-      </c>
-      <c r="H17" s="18">
-        <v>60</v>
-      </c>
-      <c r="I17" s="18">
-        <v>10000</v>
-      </c>
-      <c r="J17" s="18">
-        <v>10800</v>
-      </c>
-      <c r="K17" s="18">
-        <v>1200</v>
-      </c>
-      <c r="L17" s="18">
-        <v>420</v>
-      </c>
-      <c r="M17" s="18">
-        <v>340</v>
-      </c>
-      <c r="N17" s="18">
-        <v>100</v>
-      </c>
-      <c r="O17" s="18">
-        <v>2100</v>
-      </c>
-      <c r="P17" s="18">
-        <v>2100</v>
-      </c>
-      <c r="Q17" s="18">
-        <v>0</v>
-      </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-    </row>
-    <row r="18" ht="16.15" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+    <row r="17" ht="16.15" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/att.xlsx
+++ b/att.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="21000" windowHeight="10845"/>
   </bookViews>
   <sheets>
-    <sheet name="AttProto" sheetId="1" r:id="rId4"/>
+    <sheet name="AttProto" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -302,33 +305,179 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,17 +487,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -398,42 +733,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -462,6 +761,24 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -470,109 +787,432 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -698,7 +1338,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -707,7 +1347,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -716,7 +1356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -790,13 +1430,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -816,8 +1455,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,8 +1484,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,8 +1509,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,8 +1534,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,8 +1559,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,8 +1584,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,8 +1609,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,8 +1634,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,8 +1659,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,8 +1684,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,9 +1697,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1085,13 +1720,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1111,8 +1745,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,8 +1770,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,8 +1795,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,8 +1820,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1215,8 +1845,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,8 +1870,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,8 +1895,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1293,8 +1920,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,8 +1945,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1345,8 +1970,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,9 +1983,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1372,8 +2002,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1393,8 +2021,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1423,8 +2050,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1449,8 +2075,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1475,8 +2100,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1501,8 +2125,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1527,8 +2150,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1553,8 +2175,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1579,8 +2200,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1605,8 +2225,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1631,8 +2250,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1645,9 +2263,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1656,35 +2280,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.35156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.35156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.35" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.35" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.35156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.35156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.35" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.35" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85156" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85" style="1" customWidth="1"/>
     <col min="16" max="18" width="8" style="1" customWidth="1"/>
     <col min="19" max="38" width="13" style="1" customWidth="1"/>
     <col min="39" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:38">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1699,7 +2326,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3"/>
@@ -1727,25 +2354,25 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" ht="113" customHeight="1">
+    <row r="2" ht="113" customHeight="1" spans="1:38">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" t="s" s="5">
+      <c r="N2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="4"/>
@@ -1773,249 +2400,249 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:38">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="7">
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s" s="7">
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s" s="7">
+      <c r="L3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s" s="7">
+      <c r="M3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s" s="7">
+      <c r="N3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O3" t="s" s="8">
+      <c r="O3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P3" t="s" s="9">
+      <c r="P3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" t="s" s="8">
+      <c r="Q3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" t="s" s="10">
+      <c r="R3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="S3" t="s" s="10">
+      <c r="S3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="T3" t="s" s="10">
+      <c r="T3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="U3" t="s" s="10">
+      <c r="U3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="V3" t="s" s="10">
+      <c r="V3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="W3" t="s" s="10">
+      <c r="W3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="X3" t="s" s="10">
+      <c r="X3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" t="s" s="10">
+      <c r="Y3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" t="s" s="10">
+      <c r="Z3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" t="s" s="10">
+      <c r="AA3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" t="s" s="10">
+      <c r="AB3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" t="s" s="10">
+      <c r="AC3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" t="s" s="10">
+      <c r="AD3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" t="s" s="10">
+      <c r="AE3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" t="s" s="10">
+      <c r="AF3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" t="s" s="10">
+      <c r="AG3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" t="s" s="10">
+      <c r="AH3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI3" t="s" s="10">
+      <c r="AI3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" t="s" s="10">
+      <c r="AJ3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AK3" t="s" s="10">
+      <c r="AK3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AL3" t="s" s="10">
+      <c r="AL3" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:38">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="F4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s" s="7">
+      <c r="G4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s" s="7">
+      <c r="H4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J4" t="s" s="7">
+      <c r="J4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K4" t="s" s="7">
+      <c r="K4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L4" t="s" s="7">
+      <c r="L4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M4" t="s" s="7">
+      <c r="M4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N4" t="s" s="7">
+      <c r="N4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O4" t="s" s="8">
+      <c r="O4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="P4" t="s" s="9">
+      <c r="P4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" t="s" s="8">
+      <c r="Q4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R4" t="s" s="10">
+      <c r="R4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="S4" t="s" s="10">
+      <c r="S4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="T4" t="s" s="10">
+      <c r="T4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="U4" t="s" s="10">
+      <c r="U4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V4" t="s" s="10">
+      <c r="V4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="W4" t="s" s="10">
+      <c r="W4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="X4" t="s" s="10">
+      <c r="X4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" t="s" s="10">
+      <c r="Y4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" t="s" s="10">
+      <c r="Z4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" t="s" s="10">
+      <c r="AA4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" t="s" s="10">
+      <c r="AB4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" t="s" s="10">
+      <c r="AC4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" t="s" s="10">
+      <c r="AD4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" t="s" s="10">
+      <c r="AE4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" t="s" s="10">
+      <c r="AF4" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" t="s" s="10">
+      <c r="AG4" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" t="s" s="10">
+      <c r="AH4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" t="s" s="10">
+      <c r="AI4" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" t="s" s="10">
+      <c r="AJ4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AK4" t="s" s="10">
+      <c r="AK4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" t="s" s="10">
+      <c r="AL4" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:38">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E5" t="s" s="7">
+      <c r="E5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F5" t="s" s="7">
+      <c r="F5" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G5" s="7"/>
@@ -2026,1257 +2653,1257 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:38">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F6" t="s" s="7">
+      <c r="F6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s" s="7">
+      <c r="G6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H6" t="s" s="7">
+      <c r="H6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I6" t="s" s="7">
+      <c r="I6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s" s="7">
+      <c r="J6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s" s="7">
+      <c r="K6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s" s="7">
+      <c r="L6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M6" t="s" s="7">
+      <c r="M6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N6" t="s" s="7">
+      <c r="N6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="O6" t="s" s="8">
+      <c r="O6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="P6" t="s" s="9">
+      <c r="P6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" t="s" s="8">
+      <c r="Q6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="R6" t="s" s="10">
+      <c r="R6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="S6" t="s" s="10">
+      <c r="S6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="T6" t="s" s="10">
+      <c r="T6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="U6" t="s" s="10">
+      <c r="U6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="V6" t="s" s="10">
+      <c r="V6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="W6" t="s" s="10">
+      <c r="W6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="X6" t="s" s="10">
+      <c r="X6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" t="s" s="10">
+      <c r="Y6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="Z6" t="s" s="10">
+      <c r="Z6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AA6" t="s" s="10">
+      <c r="AA6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AB6" t="s" s="10">
+      <c r="AB6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AC6" t="s" s="10">
+      <c r="AC6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AD6" t="s" s="10">
+      <c r="AD6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AE6" t="s" s="10">
+      <c r="AE6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AF6" t="s" s="10">
+      <c r="AF6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AG6" t="s" s="10">
+      <c r="AG6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" t="s" s="10">
+      <c r="AH6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AI6" t="s" s="10">
+      <c r="AI6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AJ6" t="s" s="10">
+      <c r="AJ6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AK6" t="s" s="10">
+      <c r="AK6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AL6" t="s" s="10">
+      <c r="AL6" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" ht="14.65" customHeight="1">
+    <row r="7" ht="14.65" customHeight="1" spans="1:38">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="12">
+      <c r="D7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>100</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>50</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <v>10</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <v>30</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="10">
         <v>10000</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <v>3000</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="10">
         <v>500</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="10">
         <v>120</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="10">
         <v>100</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="10">
         <v>100</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <v>1200</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="10">
         <v>1200</v>
       </c>
-      <c r="Q7" s="13">
-        <v>0</v>
-      </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="13">
-        <v>0</v>
-      </c>
-      <c r="T7" s="13">
-        <v>0</v>
-      </c>
-      <c r="U7" s="13">
-        <v>0</v>
-      </c>
-      <c r="V7" s="13">
-        <v>0</v>
-      </c>
-      <c r="W7" s="13">
-        <v>0</v>
-      </c>
-      <c r="X7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="13">
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1">
+    <row r="8" ht="14" customHeight="1" spans="1:38">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="16">
+      <c r="D8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>12</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>11</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>5</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="13">
         <v>60</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>10000</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="13">
         <v>1500</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="13">
         <v>1200</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="13">
         <v>50</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="13">
         <v>60</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="13">
         <v>100</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="13">
         <v>1300</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="13">
         <v>1300</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="13">
         <v>0</v>
       </c>
       <c r="R8" s="18"/>
-      <c r="S8" s="17">
-        <v>0</v>
-      </c>
-      <c r="T8" s="17">
-        <v>0</v>
-      </c>
-      <c r="U8" s="17">
-        <v>0</v>
-      </c>
-      <c r="V8" s="17">
-        <v>0</v>
-      </c>
-      <c r="W8" s="17">
-        <v>0</v>
-      </c>
-      <c r="X8" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="17">
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13">
+        <v>0</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1">
+    <row r="9" ht="25" customHeight="1" spans="1:38">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="16">
+      <c r="D9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <v>15</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <v>7</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <v>53</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <v>10000</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <v>1700</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="13">
         <v>1000</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="13">
         <v>70</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="13">
         <v>60</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="13">
         <v>100</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="13">
         <v>1400</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="13">
         <v>1400</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="13">
         <v>0</v>
       </c>
       <c r="R9" s="18"/>
-      <c r="S9" s="17">
-        <v>0</v>
-      </c>
-      <c r="T9" s="17">
-        <v>0</v>
-      </c>
-      <c r="U9" s="17">
-        <v>0</v>
-      </c>
-      <c r="V9" s="17">
-        <v>0</v>
-      </c>
-      <c r="W9" s="17">
-        <v>0</v>
-      </c>
-      <c r="X9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="s" s="19">
+      <c r="S9" s="13">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="U9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9" s="13">
+        <v>0</v>
+      </c>
+      <c r="W9" s="13">
+        <v>0</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AD9" t="s" s="19">
+      <c r="AD9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AE9" t="s" s="19">
+      <c r="AE9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AF9" t="s" s="19">
+      <c r="AF9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AG9" t="s" s="19">
+      <c r="AG9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AH9" t="s" s="19">
+      <c r="AH9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AI9" t="s" s="19">
+      <c r="AI9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" t="s" s="19">
+      <c r="AJ9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AK9" t="s" s="19">
+      <c r="AK9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AL9" t="s" s="19">
+      <c r="AL9" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" ht="14.65" customHeight="1">
+    <row r="10" ht="14.65" customHeight="1" spans="1:38">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="16">
+      <c r="D10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>100</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <v>50</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>10</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="13">
         <v>30</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <v>10000</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="13">
         <v>3000</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="13">
         <v>500</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="13">
         <v>120</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="13">
         <v>100</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="13">
         <v>100</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="13">
         <v>1500</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="13">
         <v>1500</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="13">
         <v>1000</v>
       </c>
       <c r="R10" s="18"/>
-      <c r="S10" s="17">
-        <v>0</v>
-      </c>
-      <c r="T10" s="17">
-        <v>0</v>
-      </c>
-      <c r="U10" s="17">
-        <v>0</v>
-      </c>
-      <c r="V10" s="17">
-        <v>0</v>
-      </c>
-      <c r="W10" s="17">
-        <v>0</v>
-      </c>
-      <c r="X10" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="17">
+      <c r="S10" s="13">
+        <v>0</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="14.65" customHeight="1">
+    <row r="11" ht="14.65" customHeight="1" spans="1:38">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" t="s" s="16">
+      <c r="D11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="13">
         <v>189</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <v>85</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <v>13</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <v>30</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <v>10000</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="13">
         <v>4300</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="13">
         <v>500</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="13">
         <v>170</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="13">
         <v>140</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="13">
         <v>100</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="13">
         <v>1600</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="13">
         <v>1600</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="13">
         <v>0</v>
       </c>
       <c r="R11" s="18"/>
-      <c r="S11" s="17">
-        <v>0</v>
-      </c>
-      <c r="T11" s="17">
-        <v>0</v>
-      </c>
-      <c r="U11" s="17">
-        <v>0</v>
-      </c>
-      <c r="V11" s="17">
-        <v>0</v>
-      </c>
-      <c r="W11" s="17">
-        <v>0</v>
-      </c>
-      <c r="X11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="17">
+      <c r="S11" s="13">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
+      <c r="W11" s="13">
+        <v>0</v>
+      </c>
+      <c r="X11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="14.65" customHeight="1">
+    <row r="12" ht="14.65" customHeight="1" spans="1:38">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" t="s" s="16">
+      <c r="D12" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>278</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="13">
         <v>120</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="13">
         <v>16</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="13">
         <v>60</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="13">
         <v>10000</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="13">
         <v>5600</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="13">
         <v>1200</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="13">
         <v>220</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="13">
         <v>180</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="13">
         <v>100</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="13">
         <v>1700</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="13">
         <v>1700</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="13">
         <v>0</v>
       </c>
       <c r="R12" s="18"/>
-      <c r="S12" s="17">
-        <v>0</v>
-      </c>
-      <c r="T12" s="17">
-        <v>0</v>
-      </c>
-      <c r="U12" s="17">
-        <v>0</v>
-      </c>
-      <c r="V12" s="17">
-        <v>0</v>
-      </c>
-      <c r="W12" s="17">
-        <v>0</v>
-      </c>
-      <c r="X12" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="17">
+      <c r="S12" s="13">
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="13">
+        <v>0</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="14.65" customHeight="1">
+    <row r="13" ht="14.65" customHeight="1" spans="1:38">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" t="s" s="16">
+      <c r="D13" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="13">
         <v>367</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="13">
         <v>155</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="13">
         <v>19</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
         <v>53</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="13">
         <v>10000</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <v>6900</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="13">
         <v>1000</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="13">
         <v>270</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="13">
         <v>220</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="13">
         <v>100</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="13">
         <v>1800</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="13">
         <v>1800</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="13">
         <v>0</v>
       </c>
       <c r="R13" s="18"/>
-      <c r="S13" s="17">
-        <v>0</v>
-      </c>
-      <c r="T13" s="17">
-        <v>0</v>
-      </c>
-      <c r="U13" s="17">
-        <v>0</v>
-      </c>
-      <c r="V13" s="17">
-        <v>0</v>
-      </c>
-      <c r="W13" s="17">
-        <v>0</v>
-      </c>
-      <c r="X13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="17">
+      <c r="S13" s="13">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="14.65" customHeight="1">
+    <row r="14" ht="14.65" customHeight="1" spans="1:38">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" t="s" s="16">
+      <c r="D14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="13">
         <v>456</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="13">
         <v>190</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="13">
         <v>22</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="13">
         <v>30</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="13">
         <v>10000</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="13">
         <v>8200</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="13">
         <v>500</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="13">
         <v>320</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="13">
         <v>260</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="13">
         <v>100</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="13">
         <v>1900</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="13">
         <v>1900</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="13">
         <v>1000</v>
       </c>
       <c r="R14" s="18"/>
-      <c r="S14" s="17">
-        <v>0</v>
-      </c>
-      <c r="T14" s="17">
-        <v>0</v>
-      </c>
-      <c r="U14" s="17">
-        <v>0</v>
-      </c>
-      <c r="V14" s="17">
-        <v>0</v>
-      </c>
-      <c r="W14" s="17">
-        <v>0</v>
-      </c>
-      <c r="X14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="17">
+      <c r="S14" s="13">
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.65" customHeight="1">
+    <row r="15" ht="14.65" customHeight="1" spans="1:38">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" t="s" s="16">
+      <c r="D15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>545</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="13">
         <v>225</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="13">
         <v>25</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="13">
         <v>30</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="13">
         <v>10000</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="13">
         <v>9500</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="13">
         <v>500</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="13">
         <v>370</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="13">
         <v>300</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="13">
         <v>100</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="13">
         <v>2000</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="13">
         <v>2000</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="13">
         <v>0</v>
       </c>
       <c r="R15" s="18"/>
-      <c r="S15" s="17">
-        <v>0</v>
-      </c>
-      <c r="T15" s="17">
-        <v>0</v>
-      </c>
-      <c r="U15" s="17">
-        <v>0</v>
-      </c>
-      <c r="V15" s="17">
-        <v>0</v>
-      </c>
-      <c r="W15" s="17">
-        <v>0</v>
-      </c>
-      <c r="X15" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="17">
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="14.65" customHeight="1">
+    <row r="16" ht="14.65" customHeight="1" spans="1:38">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" t="s" s="16">
+      <c r="D16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="17">
-        <v>634</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="E16" s="13">
+        <v>888</v>
+      </c>
+      <c r="F16" s="13">
         <v>260</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="13">
         <v>28</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="13">
         <v>60</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="13">
         <v>10000</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>10800</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="13">
         <v>1200</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="13">
         <v>420</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="13">
         <v>340</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="13">
         <v>100</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="13">
         <v>2100</v>
       </c>
       <c r="P16" s="18"/>
-      <c r="Q16" s="17">
+      <c r="Q16" s="13">
         <v>0</v>
       </c>
       <c r="R16" s="18"/>
-      <c r="S16" s="17">
-        <v>0</v>
-      </c>
-      <c r="T16" s="17">
-        <v>0</v>
-      </c>
-      <c r="U16" s="17">
-        <v>0</v>
-      </c>
-      <c r="V16" s="17">
-        <v>0</v>
-      </c>
-      <c r="W16" s="17">
-        <v>0</v>
-      </c>
-      <c r="X16" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="17">
+      <c r="S16" s="13">
+        <v>0</v>
+      </c>
+      <c r="T16" s="13">
+        <v>0</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0</v>
+      </c>
+      <c r="V16" s="13">
+        <v>0</v>
+      </c>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="16.15" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
+    <row r="17" ht="16.15" customHeight="1" spans="1:38">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -3303,7 +3930,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/att.xlsx
+++ b/att.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -31,118 +31,115 @@
     <t>导出字段名</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Atk</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>DmgInc</t>
-  </si>
-  <si>
-    <t>Crit</t>
-  </si>
-  <si>
-    <t>CritInc</t>
-  </si>
-  <si>
-    <t>Heal</t>
-  </si>
-  <si>
-    <t>RealDmg</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>AtbSpeed</t>
-  </si>
-  <si>
-    <t>EffectHit</t>
-  </si>
-  <si>
-    <t>EffectResist</t>
-  </si>
-  <si>
-    <t>MaxHP</t>
-  </si>
-  <si>
-    <t>GenMP</t>
-  </si>
-  <si>
-    <t>Rage</t>
-  </si>
-  <si>
-    <t>DmgPhysics</t>
-  </si>
-  <si>
-    <t>DmgEarth</t>
-  </si>
-  <si>
-    <t>DmgWater</t>
-  </si>
-  <si>
-    <t>DmgFire</t>
-  </si>
-  <si>
-    <t>DmgWind</t>
-  </si>
-  <si>
-    <t>DmgTime</t>
-  </si>
-  <si>
-    <t>DmgSpace</t>
-  </si>
-  <si>
-    <t>DmgMirage</t>
-  </si>
-  <si>
-    <t>DmgLight</t>
-  </si>
-  <si>
-    <t>DmgDark</t>
-  </si>
-  <si>
-    <t>ResPhysics</t>
-  </si>
-  <si>
-    <t>ResEarth</t>
-  </si>
-  <si>
-    <t>ResWater</t>
-  </si>
-  <si>
-    <t>ResFire</t>
-  </si>
-  <si>
-    <t>ResWind</t>
-  </si>
-  <si>
-    <t>ResTime</t>
-  </si>
-  <si>
-    <t>ResSpace</t>
-  </si>
-  <si>
-    <t>ResMirage</t>
-  </si>
-  <si>
-    <t>ResLight</t>
-  </si>
-  <si>
-    <t>ResDark</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>dmgInc</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>critInc</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>realDmg</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>atbSpeed</t>
+  </si>
+  <si>
+    <t>effectHit</t>
+  </si>
+  <si>
+    <t>effectResist</t>
+  </si>
+  <si>
+    <t>maxHP</t>
+  </si>
+  <si>
+    <t>genMP</t>
+  </si>
+  <si>
+    <t>rage</t>
+  </si>
+  <si>
+    <t>dmgPhysics</t>
+  </si>
+  <si>
+    <t>dmgEarth</t>
+  </si>
+  <si>
+    <t>dmgWater</t>
+  </si>
+  <si>
+    <t>dmgFire</t>
+  </si>
+  <si>
+    <t>dmgWind</t>
+  </si>
+  <si>
+    <t>dmgTime</t>
+  </si>
+  <si>
+    <t>dmgSpace</t>
+  </si>
+  <si>
+    <t>dmgMirage</t>
+  </si>
+  <si>
+    <t>dmgLight</t>
+  </si>
+  <si>
+    <t>dmgDark</t>
+  </si>
+  <si>
+    <t>resPhysics</t>
+  </si>
+  <si>
+    <t>resEarth</t>
+  </si>
+  <si>
+    <t>resWater</t>
+  </si>
+  <si>
+    <t>resFire</t>
+  </si>
+  <si>
+    <t>resWind</t>
+  </si>
+  <si>
+    <t>resTime</t>
+  </si>
+  <si>
+    <t>resSpace</t>
+  </si>
+  <si>
+    <t>resMirage</t>
+  </si>
+  <si>
+    <t>resLight</t>
+  </si>
+  <si>
+    <t>resDark</t>
   </si>
   <si>
     <t>导出字段描述</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>描述</t>
@@ -1893,130 +1890,130 @@
         <v>42</v>
       </c>
       <c r="C4" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="E4" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="F4" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="G4" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="G4" t="s" s="7">
+      <c r="H4" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="H4" t="s" s="7">
+      <c r="I4" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="J4" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="J4" t="s" s="7">
+      <c r="K4" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="K4" t="s" s="7">
+      <c r="L4" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="L4" t="s" s="7">
+      <c r="M4" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="M4" t="s" s="7">
+      <c r="N4" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="N4" t="s" s="7">
+      <c r="O4" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="O4" t="s" s="8">
+      <c r="P4" t="s" s="9">
         <v>55</v>
       </c>
-      <c r="P4" t="s" s="9">
+      <c r="Q4" t="s" s="8">
         <v>56</v>
       </c>
-      <c r="Q4" t="s" s="8">
+      <c r="R4" t="s" s="10">
         <v>57</v>
       </c>
-      <c r="R4" t="s" s="10">
+      <c r="S4" t="s" s="10">
         <v>58</v>
       </c>
-      <c r="S4" t="s" s="10">
+      <c r="T4" t="s" s="10">
         <v>59</v>
       </c>
-      <c r="T4" t="s" s="10">
+      <c r="U4" t="s" s="10">
         <v>60</v>
       </c>
-      <c r="U4" t="s" s="10">
+      <c r="V4" t="s" s="10">
         <v>61</v>
       </c>
-      <c r="V4" t="s" s="10">
+      <c r="W4" t="s" s="10">
         <v>62</v>
       </c>
-      <c r="W4" t="s" s="10">
+      <c r="X4" t="s" s="10">
         <v>63</v>
       </c>
-      <c r="X4" t="s" s="10">
+      <c r="Y4" t="s" s="10">
         <v>64</v>
       </c>
-      <c r="Y4" t="s" s="10">
+      <c r="Z4" t="s" s="10">
         <v>65</v>
       </c>
-      <c r="Z4" t="s" s="10">
+      <c r="AA4" t="s" s="10">
         <v>66</v>
       </c>
-      <c r="AA4" t="s" s="10">
+      <c r="AB4" t="s" s="10">
         <v>67</v>
       </c>
-      <c r="AB4" t="s" s="10">
+      <c r="AC4" t="s" s="10">
         <v>68</v>
       </c>
-      <c r="AC4" t="s" s="10">
+      <c r="AD4" t="s" s="10">
         <v>69</v>
       </c>
-      <c r="AD4" t="s" s="10">
+      <c r="AE4" t="s" s="10">
         <v>70</v>
       </c>
-      <c r="AE4" t="s" s="10">
+      <c r="AF4" t="s" s="10">
         <v>71</v>
       </c>
-      <c r="AF4" t="s" s="10">
+      <c r="AG4" t="s" s="10">
         <v>72</v>
       </c>
-      <c r="AG4" t="s" s="10">
+      <c r="AH4" t="s" s="10">
         <v>73</v>
       </c>
-      <c r="AH4" t="s" s="10">
+      <c r="AI4" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="AI4" t="s" s="10">
+      <c r="AJ4" t="s" s="10">
         <v>75</v>
       </c>
-      <c r="AJ4" t="s" s="10">
+      <c r="AK4" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="AK4" t="s" s="10">
+      <c r="AL4" t="s" s="10">
         <v>77</v>
-      </c>
-      <c r="AL4" t="s" s="10">
-        <v>78</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s" s="7">
         <v>79</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="D5" t="s" s="7">
         <v>80</v>
       </c>
-      <c r="D5" t="s" s="7">
-        <v>81</v>
-      </c>
       <c r="E5" t="s" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2054,113 +2051,113 @@
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" t="s" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="14.65" customHeight="1">
@@ -2170,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="13">
         <v>100</v>
@@ -2280,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s" s="16">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="17">
         <v>12</v>
@@ -2390,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s" s="16">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="17">
         <v>11</v>
@@ -2463,34 +2460,34 @@
         <v>0</v>
       </c>
       <c r="AC9" t="s" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD9" t="s" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE9" t="s" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF9" t="s" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG9" t="s" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH9" t="s" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ9" t="s" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK9" t="s" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL9" t="s" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" ht="14.65" customHeight="1">
@@ -2500,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" s="16">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="17">
         <v>100</v>
@@ -2610,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s" s="16">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="17">
         <v>189</v>
@@ -2720,7 +2717,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s" s="16">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="17">
         <v>278</v>
@@ -2830,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s" s="16">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="17">
         <v>367</v>
@@ -2940,7 +2937,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s" s="16">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="17">
         <v>456</v>
@@ -3050,7 +3047,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" s="16">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="17">
         <v>545</v>
@@ -3160,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s" s="16">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="17">
         <v>634</v>

--- a/att.xlsx
+++ b/att.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -28,6 +28,10 @@
     <t>10000=100%</t>
   </si>
   <si>
+    <t>服务器端用 +策划不用填写</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -73,6 +77,9 @@
     <t>maxHP</t>
   </si>
   <si>
+    <t>maxMP</t>
+  </si>
+  <si>
     <t>genMP</t>
   </si>
   <si>
@@ -139,6 +146,12 @@
     <t>resDark</t>
   </si>
   <si>
+    <t>dmgOfType</t>
+  </si>
+  <si>
+    <t>resOfType</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
@@ -181,6 +194,9 @@
     <t>血量上限</t>
   </si>
   <si>
+    <t>蓝量上限</t>
+  </si>
+  <si>
     <t>魔法恢复</t>
   </si>
   <si>
@@ -247,6 +263,12 @@
     <t>暗系伤害抗性</t>
   </si>
   <si>
+    <t>各系伤害加层</t>
+  </si>
+  <si>
+    <t>各系伤害减免</t>
+  </si>
+  <si>
     <t>客户端导出字段类型</t>
   </si>
   <si>
@@ -260,6 +282,9 @@
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>[]int32</t>
   </si>
   <si>
     <t>霜之哀伤基础属性</t>
@@ -414,7 +439,9 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -423,9 +450,7 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1654,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1675,9 +1700,9 @@
     <col min="13" max="13" width="8.35156" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.85156" style="1" customWidth="1"/>
-    <col min="16" max="18" width="8" style="1" customWidth="1"/>
-    <col min="19" max="38" width="13" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="16" max="19" width="8" style="1" customWidth="1"/>
+    <col min="20" max="41" width="13" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
@@ -1723,6 +1748,9 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
     </row>
     <row r="2" ht="113" customHeight="1">
       <c r="A2" s="3"/>
@@ -1769,251 +1797,276 @@
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="s" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" ht="16.15" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" t="s" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P3" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="Q3" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="R3" t="s" s="10">
+      <c r="Q3" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="S3" t="s" s="10">
+      <c r="R3" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="T3" t="s" s="10">
+      <c r="S3" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="U3" t="s" s="10">
+      <c r="T3" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="V3" t="s" s="10">
+      <c r="U3" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="W3" t="s" s="10">
+      <c r="V3" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="X3" t="s" s="10">
+      <c r="W3" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="Y3" t="s" s="10">
+      <c r="X3" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="Z3" t="s" s="10">
+      <c r="Y3" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="AA3" t="s" s="10">
+      <c r="Z3" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="AB3" t="s" s="10">
+      <c r="AA3" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="AC3" t="s" s="10">
+      <c r="AB3" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="AD3" t="s" s="10">
+      <c r="AC3" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="AE3" t="s" s="10">
+      <c r="AD3" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="AF3" t="s" s="10">
+      <c r="AE3" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="AG3" t="s" s="10">
+      <c r="AF3" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="AH3" t="s" s="10">
+      <c r="AG3" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="AI3" t="s" s="10">
+      <c r="AH3" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="AJ3" t="s" s="10">
+      <c r="AI3" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="AK3" t="s" s="10">
+      <c r="AJ3" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="AL3" t="s" s="10">
+      <c r="AK3" t="s" s="9">
         <v>41</v>
+      </c>
+      <c r="AL3" t="s" s="9">
+        <v>42</v>
+      </c>
+      <c r="AM3" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="AN3" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="AO3" t="s" s="9">
+        <v>45</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" t="s" s="6">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s" s="8">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s" s="9">
-        <v>55</v>
-      </c>
-      <c r="Q4" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="R4" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="S4" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="T4" t="s" s="10">
         <v>59</v>
       </c>
-      <c r="U4" t="s" s="10">
+      <c r="Q4" t="s" s="10">
         <v>60</v>
       </c>
-      <c r="V4" t="s" s="10">
+      <c r="R4" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="W4" t="s" s="10">
+      <c r="S4" t="s" s="9">
         <v>62</v>
       </c>
-      <c r="X4" t="s" s="10">
+      <c r="T4" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="Y4" t="s" s="10">
+      <c r="U4" t="s" s="9">
         <v>64</v>
       </c>
-      <c r="Z4" t="s" s="10">
+      <c r="V4" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="AA4" t="s" s="10">
+      <c r="W4" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="AB4" t="s" s="10">
+      <c r="X4" t="s" s="9">
         <v>67</v>
       </c>
-      <c r="AC4" t="s" s="10">
+      <c r="Y4" t="s" s="9">
         <v>68</v>
       </c>
-      <c r="AD4" t="s" s="10">
+      <c r="Z4" t="s" s="9">
         <v>69</v>
       </c>
-      <c r="AE4" t="s" s="10">
+      <c r="AA4" t="s" s="9">
         <v>70</v>
       </c>
-      <c r="AF4" t="s" s="10">
+      <c r="AB4" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="AG4" t="s" s="10">
+      <c r="AC4" t="s" s="9">
         <v>72</v>
       </c>
-      <c r="AH4" t="s" s="10">
+      <c r="AD4" t="s" s="9">
         <v>73</v>
       </c>
-      <c r="AI4" t="s" s="10">
+      <c r="AE4" t="s" s="9">
         <v>74</v>
       </c>
-      <c r="AJ4" t="s" s="10">
+      <c r="AF4" t="s" s="9">
         <v>75</v>
       </c>
-      <c r="AK4" t="s" s="10">
+      <c r="AG4" t="s" s="9">
         <v>76</v>
       </c>
-      <c r="AL4" t="s" s="10">
+      <c r="AH4" t="s" s="9">
         <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="9">
+        <v>78</v>
+      </c>
+      <c r="AJ4" t="s" s="9">
+        <v>79</v>
+      </c>
+      <c r="AK4" t="s" s="9">
+        <v>80</v>
+      </c>
+      <c r="AL4" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="AM4" t="s" s="9">
+        <v>82</v>
+      </c>
+      <c r="AN4" t="s" s="9">
+        <v>83</v>
+      </c>
+      <c r="AO4" t="s" s="9">
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" t="s" s="6">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s" s="7">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s" s="7">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s" s="7">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s" s="7">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2025,139 +2078,151 @@
       <c r="N5" s="7"/>
       <c r="O5" s="8"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" t="s" s="6">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N6" t="s" s="7">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s" s="8">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s" s="9">
-        <v>82</v>
-      </c>
-      <c r="Q6" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="R6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="S6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="T6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="U6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="V6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="W6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="X6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="Y6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="Z6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AA6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AF6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AG6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AH6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AI6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AJ6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AK6" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="AL6" t="s" s="10">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="Q6" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="R6" t="s" s="8">
+        <v>89</v>
+      </c>
+      <c r="S6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="T6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="U6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="V6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="W6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="Z6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AA6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AB6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AC6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AD6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AE6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AF6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AG6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AH6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AI6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AJ6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AK6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AL6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AM6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AN6" t="s" s="9">
+        <v>90</v>
+      </c>
+      <c r="AO6" t="s" s="9">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="14.65" customHeight="1">
@@ -2167,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E7" s="13">
         <v>100</v>
@@ -2206,12 +2271,12 @@
         <v>1200</v>
       </c>
       <c r="Q7" s="13">
-        <v>0</v>
-      </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="13">
-        <v>0</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="14"/>
       <c r="T7" s="13">
         <v>0</v>
       </c>
@@ -2269,6 +2334,11 @@
       <c r="AL7" s="13">
         <v>0</v>
       </c>
+      <c r="AM7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
     </row>
     <row r="8" ht="14" customHeight="1">
       <c r="A8" s="3"/>
@@ -2277,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s" s="16">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E8" s="17">
         <v>12</v>
@@ -2316,12 +2386,12 @@
         <v>1300</v>
       </c>
       <c r="Q8" s="17">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="17">
-        <v>0</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18"/>
       <c r="T8" s="17">
         <v>0</v>
       </c>
@@ -2379,6 +2449,11 @@
       <c r="AL8" s="17">
         <v>0</v>
       </c>
+      <c r="AM8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
     </row>
     <row r="9" ht="25" customHeight="1">
       <c r="A9" s="3"/>
@@ -2387,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s" s="16">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E9" s="17">
         <v>11</v>
@@ -2426,12 +2501,12 @@
         <v>1400</v>
       </c>
       <c r="Q9" s="17">
-        <v>0</v>
-      </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="17">
-        <v>0</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18"/>
       <c r="T9" s="17">
         <v>0</v>
       </c>
@@ -2459,36 +2534,41 @@
       <c r="AB9" s="17">
         <v>0</v>
       </c>
-      <c r="AC9" t="s" s="19">
-        <v>86</v>
+      <c r="AC9" s="17">
+        <v>0</v>
       </c>
       <c r="AD9" t="s" s="19">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AE9" t="s" s="19">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AF9" t="s" s="19">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="19">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AH9" t="s" s="19">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AI9" t="s" s="19">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AJ9" t="s" s="19">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s" s="19">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AL9" t="s" s="19">
-        <v>86</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AM9" t="s" s="19">
+        <v>94</v>
+      </c>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
     </row>
     <row r="10" ht="14.65" customHeight="1">
       <c r="A10" s="3"/>
@@ -2497,7 +2577,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" s="16">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E10" s="17">
         <v>100</v>
@@ -2536,12 +2616,12 @@
         <v>1500</v>
       </c>
       <c r="Q10" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R10" s="17">
         <v>1000</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="17">
-        <v>0</v>
-      </c>
+      <c r="S10" s="18"/>
       <c r="T10" s="17">
         <v>0</v>
       </c>
@@ -2599,6 +2679,11 @@
       <c r="AL10" s="17">
         <v>0</v>
       </c>
+      <c r="AM10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
     </row>
     <row r="11" ht="14.65" customHeight="1">
       <c r="A11" s="3"/>
@@ -2607,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s" s="16">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E11" s="17">
         <v>189</v>
@@ -2646,12 +2731,12 @@
         <v>1600</v>
       </c>
       <c r="Q11" s="17">
-        <v>0</v>
-      </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="17">
-        <v>0</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0</v>
+      </c>
+      <c r="S11" s="18"/>
       <c r="T11" s="17">
         <v>0</v>
       </c>
@@ -2709,6 +2794,11 @@
       <c r="AL11" s="17">
         <v>0</v>
       </c>
+      <c r="AM11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
     </row>
     <row r="12" ht="14.65" customHeight="1">
       <c r="A12" s="3"/>
@@ -2717,7 +2807,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s" s="16">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E12" s="17">
         <v>278</v>
@@ -2756,12 +2846,12 @@
         <v>1700</v>
       </c>
       <c r="Q12" s="17">
-        <v>0</v>
-      </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="17">
-        <v>0</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="R12" s="17">
+        <v>0</v>
+      </c>
+      <c r="S12" s="18"/>
       <c r="T12" s="17">
         <v>0</v>
       </c>
@@ -2819,6 +2909,11 @@
       <c r="AL12" s="17">
         <v>0</v>
       </c>
+      <c r="AM12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
     </row>
     <row r="13" ht="14.65" customHeight="1">
       <c r="A13" s="3"/>
@@ -2827,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s" s="16">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E13" s="17">
         <v>367</v>
@@ -2866,12 +2961,12 @@
         <v>1800</v>
       </c>
       <c r="Q13" s="17">
-        <v>0</v>
-      </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="17">
-        <v>0</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="R13" s="17">
+        <v>0</v>
+      </c>
+      <c r="S13" s="18"/>
       <c r="T13" s="17">
         <v>0</v>
       </c>
@@ -2929,6 +3024,11 @@
       <c r="AL13" s="17">
         <v>0</v>
       </c>
+      <c r="AM13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
     </row>
     <row r="14" ht="14.65" customHeight="1">
       <c r="A14" s="3"/>
@@ -2937,7 +3037,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s" s="16">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E14" s="17">
         <v>456</v>
@@ -2976,12 +3076,12 @@
         <v>1900</v>
       </c>
       <c r="Q14" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R14" s="17">
         <v>1000</v>
       </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="17">
-        <v>0</v>
-      </c>
+      <c r="S14" s="18"/>
       <c r="T14" s="17">
         <v>0</v>
       </c>
@@ -3039,6 +3139,11 @@
       <c r="AL14" s="17">
         <v>0</v>
       </c>
+      <c r="AM14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
     </row>
     <row r="15" ht="14.65" customHeight="1">
       <c r="A15" s="3"/>
@@ -3047,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" s="16">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E15" s="17">
         <v>545</v>
@@ -3086,12 +3191,12 @@
         <v>2000</v>
       </c>
       <c r="Q15" s="17">
-        <v>0</v>
-      </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="17">
-        <v>0</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="R15" s="17">
+        <v>0</v>
+      </c>
+      <c r="S15" s="18"/>
       <c r="T15" s="17">
         <v>0</v>
       </c>
@@ -3149,6 +3254,11 @@
       <c r="AL15" s="17">
         <v>0</v>
       </c>
+      <c r="AM15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
     </row>
     <row r="16" ht="14.65" customHeight="1">
       <c r="A16" s="3"/>
@@ -3157,7 +3267,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s" s="16">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E16" s="17">
         <v>634</v>
@@ -3192,14 +3302,16 @@
       <c r="O16" s="17">
         <v>2100</v>
       </c>
-      <c r="P16" s="18"/>
+      <c r="P16" s="17">
+        <v>2100</v>
+      </c>
       <c r="Q16" s="17">
-        <v>0</v>
-      </c>
-      <c r="R16" s="18"/>
-      <c r="S16" s="17">
-        <v>0</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="R16" s="17">
+        <v>0</v>
+      </c>
+      <c r="S16" s="18"/>
       <c r="T16" s="17">
         <v>0</v>
       </c>
@@ -3257,6 +3369,11 @@
       <c r="AL16" s="17">
         <v>0</v>
       </c>
+      <c r="AM16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
     </row>
     <row r="17" ht="16.15" customHeight="1">
       <c r="A17" s="20"/>
@@ -3297,6 +3414,9 @@
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/att.xlsx
+++ b/att.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -269,16 +269,10 @@
     <t>各系伤害减免</t>
   </si>
   <si>
-    <t>客户端导出字段类型</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>服务器导出字段类型</t>
+    <t>字段控制</t>
+  </si>
+  <si>
+    <t>导出字段类型</t>
   </si>
   <si>
     <t>int32</t>
@@ -290,6 +284,12 @@
     <t>霜之哀伤基础属性</t>
   </si>
   <si>
+    <t>0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,1</t>
+  </si>
+  <si>
     <t>梅林基础属性</t>
   </si>
   <si>
@@ -297,6 +297,163 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
   <si>
     <t>洛基基础属性</t>
@@ -498,7 +655,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -532,6 +689,9 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -545,12 +705,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2056,18 +2216,10 @@
       <c r="B5" t="s" s="6">
         <v>85</v>
       </c>
-      <c r="C5" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s" s="7">
-        <v>86</v>
-      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2107,1290 +2259,1310 @@
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" t="s" s="6">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q6" t="s" s="10">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R6" t="s" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="T6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="U6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="V6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="W6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="X6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="Y6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="Z6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AA6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AB6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AC6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AD6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AE6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AF6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AG6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AH6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AI6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AJ6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AK6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AL6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="AM6" t="s" s="9">
-        <v>89</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
       <c r="AN6" t="s" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AO6" t="s" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="7" ht="14.65" customHeight="1">
+    <row r="7" ht="25" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="12">
+      <c r="D7" t="s" s="13">
+        <v>89</v>
+      </c>
+      <c r="E7" s="14">
+        <v>100</v>
+      </c>
+      <c r="F7" s="14">
+        <v>50</v>
+      </c>
+      <c r="G7" s="14">
+        <v>10</v>
+      </c>
+      <c r="H7" s="14">
+        <v>30</v>
+      </c>
+      <c r="I7" s="14">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="14">
+        <v>3000</v>
+      </c>
+      <c r="K7" s="14">
+        <v>500</v>
+      </c>
+      <c r="L7" s="14">
+        <v>120</v>
+      </c>
+      <c r="M7" s="14">
+        <v>100</v>
+      </c>
+      <c r="N7" s="14">
+        <v>100</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1200</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1200</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>9999</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
+      </c>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="s" s="13">
+        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <v>90</v>
+      </c>
+      <c r="AO7" t="s" s="13">
+        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
         <v>91</v>
       </c>
-      <c r="E7" s="13">
-        <v>100</v>
-      </c>
-      <c r="F7" s="13">
-        <v>50</v>
-      </c>
-      <c r="G7" s="13">
-        <v>10</v>
-      </c>
-      <c r="H7" s="13">
-        <v>30</v>
-      </c>
-      <c r="I7" s="13">
-        <v>10000</v>
-      </c>
-      <c r="J7" s="13">
-        <v>3000</v>
-      </c>
-      <c r="K7" s="13">
-        <v>500</v>
-      </c>
-      <c r="L7" s="13">
-        <v>120</v>
-      </c>
-      <c r="M7" s="13">
-        <v>100</v>
-      </c>
-      <c r="N7" s="13">
-        <v>100</v>
-      </c>
-      <c r="O7" s="13">
-        <v>1200</v>
-      </c>
-      <c r="P7" s="13">
-        <v>1200</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>9999</v>
-      </c>
-      <c r="R7" s="13">
-        <v>0</v>
-      </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="13">
-        <v>0</v>
-      </c>
-      <c r="U7" s="13">
-        <v>0</v>
-      </c>
-      <c r="V7" s="13">
-        <v>0</v>
-      </c>
-      <c r="W7" s="13">
-        <v>0</v>
-      </c>
-      <c r="X7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
     </row>
-    <row r="8" ht="14" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="15">
+      <c r="C8" s="17">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="16">
+      <c r="D8" t="s" s="18">
         <v>92</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>12</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>11</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>5</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>60</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>10000</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>1500</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>1200</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <v>50</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>60</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="16">
         <v>100</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="16">
         <v>1300</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="16">
         <v>1300</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <v>9999</v>
       </c>
-      <c r="R8" s="17">
-        <v>0</v>
-      </c>
-      <c r="S8" s="18"/>
-      <c r="T8" s="17">
-        <v>0</v>
-      </c>
-      <c r="U8" s="17">
-        <v>0</v>
-      </c>
-      <c r="V8" s="17">
-        <v>0</v>
-      </c>
-      <c r="W8" s="17">
-        <v>0</v>
-      </c>
-      <c r="X8" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="s" s="18">
+        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <v>90</v>
+      </c>
+      <c r="AO8" t="s" s="18">
+        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="9" ht="25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="15">
+      <c r="C9" s="17">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="16">
+      <c r="D9" t="s" s="18">
         <v>93</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>15</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>7</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>53</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>10000</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>1700</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>1000</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>70</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>60</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="16">
         <v>100</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="16">
         <v>1400</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="16">
         <v>1400</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="16">
         <v>9999</v>
       </c>
-      <c r="R9" s="17">
-        <v>0</v>
-      </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="17">
-        <v>0</v>
-      </c>
-      <c r="U9" s="17">
-        <v>0</v>
-      </c>
-      <c r="V9" s="17">
-        <v>0</v>
-      </c>
-      <c r="W9" s="17">
-        <v>0</v>
-      </c>
-      <c r="X9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="s" s="19">
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19"/>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="AE9" t="s" s="19">
+      <c r="AE9" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="AF9" t="s" s="19">
+      <c r="AF9" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="AG9" t="s" s="19">
+      <c r="AG9" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="AH9" t="s" s="19">
+      <c r="AH9" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="AI9" t="s" s="19">
+      <c r="AI9" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="AJ9" t="s" s="19">
+      <c r="AJ9" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="AK9" t="s" s="19">
+      <c r="AK9" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="AL9" t="s" s="19">
+      <c r="AL9" t="s" s="20">
         <v>94</v>
       </c>
-      <c r="AM9" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
+      <c r="AM9" t="s" s="20">
+        <v>95</v>
+      </c>
+      <c r="AN9" t="s" s="18">
+        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <v>90</v>
+      </c>
+      <c r="AO9" t="s" s="18">
+        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+        <v>96</v>
+      </c>
     </row>
-    <row r="10" ht="14.65" customHeight="1">
+    <row r="10" ht="25" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="15">
+      <c r="C10" s="17">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="16">
-        <v>95</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" t="s" s="18">
+        <v>97</v>
+      </c>
+      <c r="E10" s="16">
         <v>100</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>50</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>10</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>30</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>10000</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>3000</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>500</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <v>120</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>100</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>100</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="16">
         <v>1500</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="16">
         <v>1500</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="16">
         <v>9999</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="16">
         <v>1000</v>
       </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="17">
-        <v>0</v>
-      </c>
-      <c r="U10" s="17">
-        <v>0</v>
-      </c>
-      <c r="V10" s="17">
-        <v>0</v>
-      </c>
-      <c r="W10" s="17">
-        <v>0</v>
-      </c>
-      <c r="X10" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="16">
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
+      <c r="X10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="s" s="18">
+        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <v>90</v>
+      </c>
+      <c r="AO10" t="s" s="18">
+        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+        <v>90</v>
+      </c>
     </row>
-    <row r="11" ht="14.65" customHeight="1">
+    <row r="11" ht="25" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="15">
+      <c r="C11" s="17">
         <v>5</v>
       </c>
-      <c r="D11" t="s" s="16">
-        <v>96</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" t="s" s="18">
+        <v>98</v>
+      </c>
+      <c r="E11" s="16">
         <v>189</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>85</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>13</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>30</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>10000</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>4300</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>500</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>170</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>140</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>100</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <v>1600</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="16">
         <v>1600</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="16">
         <v>9999</v>
       </c>
-      <c r="R11" s="17">
-        <v>0</v>
-      </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="17">
-        <v>0</v>
-      </c>
-      <c r="U11" s="17">
-        <v>0</v>
-      </c>
-      <c r="V11" s="17">
-        <v>0</v>
-      </c>
-      <c r="W11" s="17">
-        <v>0</v>
-      </c>
-      <c r="X11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
+      <c r="R11" s="16">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19"/>
+      <c r="T11" s="16">
+        <v>0</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="s" s="18">
+        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <v>90</v>
+      </c>
+      <c r="AO11" t="s" s="18">
+        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+        <v>90</v>
+      </c>
     </row>
-    <row r="12" ht="14.65" customHeight="1">
+    <row r="12" ht="25" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="15">
+      <c r="C12" s="17">
         <v>6</v>
       </c>
-      <c r="D12" t="s" s="16">
-        <v>97</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" t="s" s="18">
+        <v>99</v>
+      </c>
+      <c r="E12" s="16">
         <v>278</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>120</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>16</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>60</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>10000</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>5600</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>1200</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <v>220</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>180</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <v>100</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="16">
         <v>1700</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="16">
         <v>1700</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="16">
         <v>9999</v>
       </c>
-      <c r="R12" s="17">
-        <v>0</v>
-      </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="17">
-        <v>0</v>
-      </c>
-      <c r="U12" s="17">
-        <v>0</v>
-      </c>
-      <c r="V12" s="17">
-        <v>0</v>
-      </c>
-      <c r="W12" s="17">
-        <v>0</v>
-      </c>
-      <c r="X12" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12" s="19"/>
+      <c r="T12" s="16">
+        <v>0</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <v>0</v>
+      </c>
+      <c r="X12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="s" s="18">
+        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <v>90</v>
+      </c>
+      <c r="AO12" t="s" s="18">
+        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+        <v>90</v>
+      </c>
     </row>
-    <row r="13" ht="14.65" customHeight="1">
+    <row r="13" ht="25" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="15">
+      <c r="C13" s="17">
         <v>7</v>
       </c>
-      <c r="D13" t="s" s="16">
-        <v>98</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" t="s" s="18">
+        <v>100</v>
+      </c>
+      <c r="E13" s="16">
         <v>367</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>155</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>19</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>53</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>10000</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>6900</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>1000</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>270</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>220</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <v>100</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="16">
         <v>1800</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="16">
         <v>1800</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="16">
         <v>9999</v>
       </c>
-      <c r="R13" s="17">
-        <v>0</v>
-      </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="17">
-        <v>0</v>
-      </c>
-      <c r="U13" s="17">
-        <v>0</v>
-      </c>
-      <c r="V13" s="17">
-        <v>0</v>
-      </c>
-      <c r="W13" s="17">
-        <v>0</v>
-      </c>
-      <c r="X13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18"/>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="19"/>
+      <c r="T13" s="16">
+        <v>0</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="s" s="18">
+        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <v>90</v>
+      </c>
+      <c r="AO13" t="s" s="18">
+        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+        <v>90</v>
+      </c>
     </row>
-    <row r="14" ht="14.65" customHeight="1">
+    <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="15">
+      <c r="C14" s="17">
         <v>8</v>
       </c>
-      <c r="D14" t="s" s="16">
-        <v>99</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="D14" t="s" s="18">
+        <v>101</v>
+      </c>
+      <c r="E14" s="16">
         <v>456</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>190</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>22</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>30</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>10000</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>8200</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>500</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="16">
         <v>320</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>260</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="16">
         <v>100</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="16">
         <v>1900</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="16">
         <v>1900</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="16">
         <v>9999</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="16">
         <v>1000</v>
       </c>
-      <c r="S14" s="18"/>
-      <c r="T14" s="17">
-        <v>0</v>
-      </c>
-      <c r="U14" s="17">
-        <v>0</v>
-      </c>
-      <c r="V14" s="17">
-        <v>0</v>
-      </c>
-      <c r="W14" s="17">
-        <v>0</v>
-      </c>
-      <c r="X14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="18"/>
-      <c r="AO14" s="18"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="16">
+        <v>0</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0</v>
+      </c>
+      <c r="W14" s="16">
+        <v>0</v>
+      </c>
+      <c r="X14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="s" s="18">
+        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <v>90</v>
+      </c>
+      <c r="AO14" t="s" s="18">
+        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+        <v>90</v>
+      </c>
     </row>
-    <row r="15" ht="14.65" customHeight="1">
+    <row r="15" ht="25" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="15">
+      <c r="C15" s="17">
         <v>9</v>
       </c>
-      <c r="D15" t="s" s="16">
+      <c r="D15" t="s" s="18">
+        <v>102</v>
+      </c>
+      <c r="E15" s="16">
+        <v>545</v>
+      </c>
+      <c r="F15" s="16">
+        <v>225</v>
+      </c>
+      <c r="G15" s="16">
+        <v>25</v>
+      </c>
+      <c r="H15" s="16">
+        <v>30</v>
+      </c>
+      <c r="I15" s="16">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="16">
+        <v>9500</v>
+      </c>
+      <c r="K15" s="16">
+        <v>500</v>
+      </c>
+      <c r="L15" s="16">
+        <v>370</v>
+      </c>
+      <c r="M15" s="16">
+        <v>300</v>
+      </c>
+      <c r="N15" s="16">
         <v>100</v>
       </c>
-      <c r="E15" s="17">
-        <v>545</v>
-      </c>
-      <c r="F15" s="17">
-        <v>225</v>
-      </c>
-      <c r="G15" s="17">
-        <v>25</v>
-      </c>
-      <c r="H15" s="17">
-        <v>30</v>
-      </c>
-      <c r="I15" s="17">
-        <v>10000</v>
-      </c>
-      <c r="J15" s="17">
-        <v>9500</v>
-      </c>
-      <c r="K15" s="17">
-        <v>500</v>
-      </c>
-      <c r="L15" s="17">
-        <v>370</v>
-      </c>
-      <c r="M15" s="17">
-        <v>300</v>
-      </c>
-      <c r="N15" s="17">
-        <v>100</v>
-      </c>
-      <c r="O15" s="17">
+      <c r="O15" s="16">
         <v>2000</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="16">
         <v>2000</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="16">
         <v>9999</v>
       </c>
-      <c r="R15" s="17">
-        <v>0</v>
-      </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="17">
-        <v>0</v>
-      </c>
-      <c r="U15" s="17">
-        <v>0</v>
-      </c>
-      <c r="V15" s="17">
-        <v>0</v>
-      </c>
-      <c r="W15" s="17">
-        <v>0</v>
-      </c>
-      <c r="X15" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="18"/>
+      <c r="R15" s="16">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19"/>
+      <c r="T15" s="16">
+        <v>0</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0</v>
+      </c>
+      <c r="W15" s="16">
+        <v>0</v>
+      </c>
+      <c r="X15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="s" s="18">
+        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <v>90</v>
+      </c>
+      <c r="AO15" t="s" s="18">
+        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+        <v>90</v>
+      </c>
     </row>
-    <row r="16" ht="14.65" customHeight="1">
+    <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="15">
+      <c r="C16" s="17">
         <v>10</v>
       </c>
-      <c r="D16" t="s" s="16">
-        <v>101</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" t="s" s="18">
+        <v>103</v>
+      </c>
+      <c r="E16" s="16">
         <v>634</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>260</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>28</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>60</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>10000</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>10800</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>1200</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="16">
         <v>420</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <v>340</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="16">
         <v>100</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="16">
         <v>2100</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="16">
         <v>2100</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="16">
         <v>9999</v>
       </c>
-      <c r="R16" s="17">
-        <v>0</v>
-      </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="17">
-        <v>0</v>
-      </c>
-      <c r="U16" s="17">
-        <v>0</v>
-      </c>
-      <c r="V16" s="17">
-        <v>0</v>
-      </c>
-      <c r="W16" s="17">
-        <v>0</v>
-      </c>
-      <c r="X16" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
+      <c r="R16" s="16">
+        <v>0</v>
+      </c>
+      <c r="S16" s="19"/>
+      <c r="T16" s="16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <v>0</v>
+      </c>
+      <c r="X16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="s" s="18">
+        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <v>90</v>
+      </c>
+      <c r="AO16" t="s" s="18">
+        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="17" ht="16.15" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>

--- a/att.xlsx
+++ b/att.xlsx
@@ -28,8 +28,7 @@
     <t>10000=100%</t>
   </si>
   <si>
-    <t>服务器端用 -策划不用填写</t>
+    <t>公式生成，不用填写</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -1861,7 +1860,8 @@
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.85156" style="1" customWidth="1"/>
     <col min="16" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="41" width="13" style="1" customWidth="1"/>
+    <col min="20" max="39" width="13" style="1" customWidth="1"/>
+    <col min="40" max="41" width="17.3516" style="1" customWidth="1"/>
     <col min="42" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/att.xlsx
+++ b/att.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="AttProto" sheetId="1" r:id="rId4"/>
+    <sheet name="AttProto" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -283,12 +286,6 @@
     <t>霜之哀伤基础属性</t>
   </si>
   <si>
-    <t>0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,1</t>
-  </si>
-  <si>
     <t>梅林基础属性</t>
   </si>
   <si>
@@ -299,160 +296,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>3</t>
-    </r>
   </si>
   <si>
     <t>洛基基础属性</t>
@@ -480,33 +323,179 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,17 +505,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -576,42 +751,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -640,6 +779,26 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -648,112 +807,431 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -879,7 +1357,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -888,7 +1366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -897,7 +1375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -971,13 +1449,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -997,8 +1474,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,8 +1503,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,8 +1528,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,8 +1553,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,8 +1578,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,8 +1603,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,8 +1628,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,8 +1653,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,8 +1678,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,8 +1703,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,9 +1716,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1266,13 +1739,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1292,8 +1764,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,8 +1789,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,8 +1814,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,8 +1839,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,8 +1864,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,8 +1889,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1448,8 +1914,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1474,8 +1939,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1500,8 +1964,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1526,8 +1989,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1540,9 +2002,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1553,8 +2021,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1574,8 +2040,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1604,8 +2069,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1630,8 +2094,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1656,8 +2119,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1682,8 +2144,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1708,8 +2169,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1734,8 +2194,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1760,8 +2219,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1786,8 +2244,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1812,8 +2269,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1826,9 +2282,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1837,36 +2299,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.35156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.35156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.35" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.35" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.35156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.35156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.35" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.35" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85156" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85" style="1" customWidth="1"/>
     <col min="16" max="19" width="8" style="1" customWidth="1"/>
     <col min="20" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="41" width="17.3516" style="1" customWidth="1"/>
+    <col min="40" max="41" width="17.35" style="1" customWidth="1"/>
     <col min="42" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:41">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1881,7 +2346,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3"/>
@@ -1912,25 +2377,25 @@
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
     </row>
-    <row r="2" ht="113" customHeight="1">
+    <row r="2" ht="113" customHeight="1" spans="1:41">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" t="s" s="5">
+      <c r="N2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="4"/>
@@ -1958,262 +2423,262 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
-      <c r="AN2" t="s" s="5">
+      <c r="AN2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" t="s" s="5">
+      <c r="AO2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:41">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s" s="7">
+      <c r="J3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s" s="7">
+      <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s" s="7">
+      <c r="L3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s" s="7">
+      <c r="M3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s" s="7">
+      <c r="N3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s" s="8">
+      <c r="O3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P3" t="s" s="9">
+      <c r="P3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" t="s" s="10">
+      <c r="Q3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="R3" t="s" s="8">
+      <c r="R3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="S3" t="s" s="9">
+      <c r="S3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="T3" t="s" s="9">
+      <c r="T3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="U3" t="s" s="9">
+      <c r="U3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="V3" t="s" s="9">
+      <c r="V3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="W3" t="s" s="9">
+      <c r="W3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="X3" t="s" s="9">
+      <c r="X3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" t="s" s="9">
+      <c r="Y3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" t="s" s="9">
+      <c r="Z3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" t="s" s="9">
+      <c r="AA3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" t="s" s="9">
+      <c r="AB3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" t="s" s="9">
+      <c r="AC3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" t="s" s="9">
+      <c r="AD3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" t="s" s="9">
+      <c r="AE3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" t="s" s="9">
+      <c r="AF3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" t="s" s="9">
+      <c r="AG3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" t="s" s="9">
+      <c r="AH3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" t="s" s="9">
+      <c r="AI3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" t="s" s="9">
+      <c r="AJ3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" t="s" s="9">
+      <c r="AK3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AL3" t="s" s="9">
+      <c r="AL3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AM3" t="s" s="9">
+      <c r="AM3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AN3" t="s" s="9">
+      <c r="AN3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AO3" t="s" s="9">
+      <c r="AO3" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:41">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="F4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" t="s" s="7">
+      <c r="G4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s" s="7">
+      <c r="H4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="I4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J4" t="s" s="7">
+      <c r="J4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s" s="7">
+      <c r="K4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s" s="7">
+      <c r="L4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M4" t="s" s="7">
+      <c r="M4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N4" t="s" s="7">
+      <c r="N4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O4" t="s" s="8">
+      <c r="O4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="P4" t="s" s="9">
+      <c r="P4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" t="s" s="10">
+      <c r="Q4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="R4" t="s" s="8">
+      <c r="R4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="S4" t="s" s="9">
+      <c r="S4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T4" t="s" s="9">
+      <c r="T4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="U4" t="s" s="9">
+      <c r="U4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="V4" t="s" s="9">
+      <c r="V4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="W4" t="s" s="9">
+      <c r="W4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="X4" t="s" s="9">
+      <c r="X4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Y4" t="s" s="9">
+      <c r="Y4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" t="s" s="9">
+      <c r="Z4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" t="s" s="9">
+      <c r="AA4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB4" t="s" s="9">
+      <c r="AB4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="AC4" t="s" s="9">
+      <c r="AC4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="AD4" t="s" s="9">
+      <c r="AD4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="AE4" t="s" s="9">
+      <c r="AE4" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="AF4" t="s" s="9">
+      <c r="AF4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="AG4" t="s" s="9">
+      <c r="AG4" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AH4" t="s" s="9">
+      <c r="AH4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AI4" t="s" s="9">
+      <c r="AI4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AJ4" t="s" s="9">
+      <c r="AJ4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AK4" t="s" s="9">
+      <c r="AK4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AL4" t="s" s="9">
+      <c r="AL4" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="AM4" t="s" s="9">
+      <c r="AM4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AN4" t="s" s="9">
+      <c r="AN4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AO4" t="s" s="9">
+      <c r="AO4" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:41">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="7"/>
@@ -2228,1341 +2693,1341 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:41">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F6" t="s" s="7">
+      <c r="F6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G6" t="s" s="7">
+      <c r="G6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H6" t="s" s="7">
+      <c r="H6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I6" t="s" s="7">
+      <c r="I6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s" s="7">
+      <c r="J6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s" s="7">
+      <c r="K6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L6" t="s" s="7">
+      <c r="L6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M6" t="s" s="7">
+      <c r="M6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="N6" t="s" s="7">
+      <c r="N6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O6" t="s" s="8">
+      <c r="O6" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="P6" t="s" s="9">
+      <c r="P6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" t="s" s="10">
+      <c r="Q6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="R6" t="s" s="8">
+      <c r="R6" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="S6" t="s" s="9">
+      <c r="S6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" t="s" s="9">
+      <c r="T6" s="20"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="AO6" t="s" s="9">
+      <c r="AO6" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1">
+    <row r="7" ht="25" customHeight="1" spans="1:41">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="13">
+      <c r="D7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
+        <v>101</v>
+      </c>
+      <c r="F7" s="10">
+        <v>50</v>
+      </c>
+      <c r="G7" s="10">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10">
+        <v>30</v>
+      </c>
+      <c r="I7" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3000</v>
+      </c>
+      <c r="K7" s="10">
+        <v>500</v>
+      </c>
+      <c r="L7" s="10">
+        <v>120</v>
+      </c>
+      <c r="M7" s="10">
         <v>100</v>
       </c>
-      <c r="F7" s="14">
-        <v>50</v>
-      </c>
-      <c r="G7" s="14">
-        <v>10</v>
-      </c>
-      <c r="H7" s="14">
-        <v>30</v>
-      </c>
-      <c r="I7" s="14">
-        <v>10000</v>
-      </c>
-      <c r="J7" s="14">
-        <v>3000</v>
-      </c>
-      <c r="K7" s="14">
-        <v>500</v>
-      </c>
-      <c r="L7" s="14">
-        <v>120</v>
-      </c>
-      <c r="M7" s="14">
+      <c r="N7" s="10">
         <v>100</v>
       </c>
-      <c r="N7" s="14">
-        <v>100</v>
-      </c>
-      <c r="O7" s="14">
+      <c r="O7" s="10">
         <v>1200</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="10">
         <v>1200</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="10">
         <v>9999</v>
       </c>
-      <c r="R7" s="14">
-        <v>0</v>
-      </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16">
-        <v>0</v>
-      </c>
-      <c r="U7" s="14">
-        <v>0</v>
-      </c>
-      <c r="V7" s="14">
-        <v>0</v>
-      </c>
-      <c r="W7" s="14">
-        <v>0</v>
-      </c>
-      <c r="X7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="14">
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="21"/>
+      <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="10">
         <v>1</v>
       </c>
-      <c r="AN7" t="s" s="13">
+      <c r="AN7" s="9" t="str">
         <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>90</v>
-      </c>
-      <c r="AO7" t="s" s="13">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO7" s="9" t="str">
         <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>91</v>
+        <v>0,0,0,0,0,0,0,0,0,1</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1">
+    <row r="8" ht="25" customHeight="1" spans="1:41">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="18">
-        <v>92</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="13">
         <v>12</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>11</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <v>5</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="13">
         <v>60</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="13">
         <v>10000</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="13">
         <v>1500</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <v>1200</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="13">
         <v>50</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="13">
         <v>60</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="13">
         <v>100</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="13">
         <v>1300</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="13">
         <v>1300</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="13">
         <v>9999</v>
       </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="16">
-        <v>0</v>
-      </c>
-      <c r="U8" s="16">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="s" s="18">
+      <c r="R8" s="13">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22"/>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13">
+        <v>0</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="12" t="str">
         <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>90</v>
-      </c>
-      <c r="AO8" t="s" s="18">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO8" s="12" t="str">
         <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>90</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1">
+    <row r="9" ht="25" customHeight="1" spans="1:41">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="17">
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="18">
+      <c r="D9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="13">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>15</v>
+      </c>
+      <c r="G9" s="13">
+        <v>7</v>
+      </c>
+      <c r="H9" s="13">
+        <v>53</v>
+      </c>
+      <c r="I9" s="13">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1700</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="13">
+        <v>70</v>
+      </c>
+      <c r="M9" s="13">
+        <v>60</v>
+      </c>
+      <c r="N9" s="13">
+        <v>100</v>
+      </c>
+      <c r="O9" s="13">
+        <v>1400</v>
+      </c>
+      <c r="P9" s="13">
+        <v>1400</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>9999</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="22"/>
+      <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="U9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9" s="13">
+        <v>0</v>
+      </c>
+      <c r="W9" s="13">
+        <v>0</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM9" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="16">
-        <v>11</v>
-      </c>
-      <c r="F9" s="16">
-        <v>15</v>
-      </c>
-      <c r="G9" s="16">
-        <v>7</v>
-      </c>
-      <c r="H9" s="16">
-        <v>53</v>
-      </c>
-      <c r="I9" s="16">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="16">
-        <v>1700</v>
-      </c>
-      <c r="K9" s="16">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="16">
-        <v>70</v>
-      </c>
-      <c r="M9" s="16">
-        <v>60</v>
-      </c>
-      <c r="N9" s="16">
-        <v>100</v>
-      </c>
-      <c r="O9" s="16">
-        <v>1400</v>
-      </c>
-      <c r="P9" s="16">
-        <v>1400</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0</v>
-      </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="16">
-        <v>0</v>
-      </c>
-      <c r="U9" s="16">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <v>0</v>
-      </c>
-      <c r="W9" s="16">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="AE9" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="AF9" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="AG9" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="AH9" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="AI9" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="AJ9" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="AK9" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="AL9" t="s" s="20">
-        <v>94</v>
-      </c>
-      <c r="AM9" t="s" s="20">
-        <v>95</v>
-      </c>
-      <c r="AN9" t="s" s="18">
+      <c r="AN9" s="12" t="str">
         <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>90</v>
-      </c>
-      <c r="AO9" t="s" s="18">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO9" s="12" t="str">
         <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>96</v>
+        <v>0,0,0,0,0,0,0,0,0,3</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1">
+    <row r="10" ht="25" customHeight="1" spans="1:41">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="18">
-        <v>97</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="13">
         <v>100</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>50</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="13">
         <v>10</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="13">
         <v>30</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>10000</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="13">
         <v>3000</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="13">
         <v>500</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="13">
         <v>120</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="13">
         <v>100</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="13">
         <v>100</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="13">
         <v>1500</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="13">
         <v>1500</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="13">
         <v>9999</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="13">
         <v>1000</v>
       </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="16">
-        <v>0</v>
-      </c>
-      <c r="U10" s="16">
-        <v>0</v>
-      </c>
-      <c r="V10" s="16">
-        <v>0</v>
-      </c>
-      <c r="W10" s="16">
-        <v>0</v>
-      </c>
-      <c r="X10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="s" s="18">
+      <c r="S10" s="22"/>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="12" t="str">
         <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>90</v>
-      </c>
-      <c r="AO10" t="s" s="18">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO10" s="12" t="str">
         <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>90</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="11" ht="25" customHeight="1">
+    <row r="11" ht="25" customHeight="1" spans="1:41">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" t="s" s="18">
-        <v>98</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="D11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="13">
         <v>189</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="13">
         <v>85</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <v>13</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="13">
         <v>30</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="13">
         <v>10000</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="13">
         <v>4300</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="13">
         <v>500</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="13">
         <v>170</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="13">
         <v>140</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="13">
         <v>100</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="13">
         <v>1600</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="13">
         <v>1600</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="13">
         <v>9999</v>
       </c>
-      <c r="R11" s="16">
-        <v>0</v>
-      </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="16">
-        <v>0</v>
-      </c>
-      <c r="U11" s="16">
-        <v>0</v>
-      </c>
-      <c r="V11" s="16">
-        <v>0</v>
-      </c>
-      <c r="W11" s="16">
-        <v>0</v>
-      </c>
-      <c r="X11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="s" s="18">
+      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="S11" s="22"/>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
+      <c r="W11" s="13">
+        <v>0</v>
+      </c>
+      <c r="X11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="12" t="str">
         <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>90</v>
-      </c>
-      <c r="AO11" t="s" s="18">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO11" s="12" t="str">
         <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>90</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="12" ht="25" customHeight="1">
+    <row r="12" ht="25" customHeight="1" spans="1:41">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="17">
+      <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" t="s" s="18">
-        <v>99</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="D12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="13">
         <v>278</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>120</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="13">
         <v>16</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="13">
         <v>60</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>10000</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>5600</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="13">
         <v>1200</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="13">
         <v>220</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="13">
         <v>180</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="13">
         <v>100</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="13">
         <v>1700</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="13">
         <v>1700</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="13">
         <v>9999</v>
       </c>
-      <c r="R12" s="16">
-        <v>0</v>
-      </c>
-      <c r="S12" s="19"/>
-      <c r="T12" s="16">
-        <v>0</v>
-      </c>
-      <c r="U12" s="16">
-        <v>0</v>
-      </c>
-      <c r="V12" s="16">
-        <v>0</v>
-      </c>
-      <c r="W12" s="16">
-        <v>0</v>
-      </c>
-      <c r="X12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="s" s="18">
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="22"/>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="13">
+        <v>0</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="12" t="str">
         <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>90</v>
-      </c>
-      <c r="AO12" t="s" s="18">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO12" s="12" t="str">
         <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>90</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="13" ht="25" customHeight="1">
+    <row r="13" ht="25" customHeight="1" spans="1:41">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="17">
+      <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" t="s" s="18">
+      <c r="D13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="13">
+        <v>367</v>
+      </c>
+      <c r="F13" s="13">
+        <v>155</v>
+      </c>
+      <c r="G13" s="13">
+        <v>19</v>
+      </c>
+      <c r="H13" s="13">
+        <v>53</v>
+      </c>
+      <c r="I13" s="13">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="13">
+        <v>6900</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="13">
+        <v>270</v>
+      </c>
+      <c r="M13" s="13">
+        <v>220</v>
+      </c>
+      <c r="N13" s="13">
         <v>100</v>
       </c>
-      <c r="E13" s="16">
-        <v>367</v>
-      </c>
-      <c r="F13" s="16">
-        <v>155</v>
-      </c>
-      <c r="G13" s="16">
-        <v>19</v>
-      </c>
-      <c r="H13" s="16">
-        <v>53</v>
-      </c>
-      <c r="I13" s="16">
-        <v>10000</v>
-      </c>
-      <c r="J13" s="16">
-        <v>6900</v>
-      </c>
-      <c r="K13" s="16">
-        <v>1000</v>
-      </c>
-      <c r="L13" s="16">
-        <v>270</v>
-      </c>
-      <c r="M13" s="16">
-        <v>220</v>
-      </c>
-      <c r="N13" s="16">
-        <v>100</v>
-      </c>
-      <c r="O13" s="16">
+      <c r="O13" s="13">
         <v>1800</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="13">
         <v>1800</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="13">
         <v>9999</v>
       </c>
-      <c r="R13" s="16">
-        <v>0</v>
-      </c>
-      <c r="S13" s="19"/>
-      <c r="T13" s="16">
-        <v>0</v>
-      </c>
-      <c r="U13" s="16">
-        <v>0</v>
-      </c>
-      <c r="V13" s="16">
-        <v>0</v>
-      </c>
-      <c r="W13" s="16">
-        <v>0</v>
-      </c>
-      <c r="X13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="s" s="18">
+      <c r="R13" s="13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="22"/>
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="12" t="str">
         <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>90</v>
-      </c>
-      <c r="AO13" t="s" s="18">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO13" s="12" t="str">
         <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>90</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="14" ht="25" customHeight="1">
+    <row r="14" ht="25" customHeight="1" spans="1:41">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="17">
+      <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" t="s" s="18">
-        <v>101</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="13">
         <v>456</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <v>190</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="13">
         <v>22</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="13">
         <v>30</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="13">
         <v>10000</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="13">
         <v>8200</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="13">
         <v>500</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="13">
         <v>320</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="13">
         <v>260</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="13">
         <v>100</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="13">
         <v>1900</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="13">
         <v>1900</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="13">
         <v>9999</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="13">
         <v>1000</v>
       </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="16">
-        <v>0</v>
-      </c>
-      <c r="U14" s="16">
-        <v>0</v>
-      </c>
-      <c r="V14" s="16">
-        <v>0</v>
-      </c>
-      <c r="W14" s="16">
-        <v>0</v>
-      </c>
-      <c r="X14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="s" s="18">
+      <c r="S14" s="22"/>
+      <c r="T14" s="13">
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="12" t="str">
         <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>90</v>
-      </c>
-      <c r="AO14" t="s" s="18">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO14" s="12" t="str">
         <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>90</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="15" ht="25" customHeight="1">
+    <row r="15" ht="25" customHeight="1" spans="1:41">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="17">
+      <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" t="s" s="18">
-        <v>102</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="13">
         <v>545</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <v>225</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="13">
         <v>25</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <v>30</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="13">
         <v>10000</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="13">
         <v>9500</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="13">
         <v>500</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="13">
         <v>370</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="13">
         <v>300</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="13">
         <v>100</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="13">
         <v>2000</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="13">
         <v>2000</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="13">
         <v>9999</v>
       </c>
-      <c r="R15" s="16">
-        <v>0</v>
-      </c>
-      <c r="S15" s="19"/>
-      <c r="T15" s="16">
-        <v>0</v>
-      </c>
-      <c r="U15" s="16">
-        <v>0</v>
-      </c>
-      <c r="V15" s="16">
-        <v>0</v>
-      </c>
-      <c r="W15" s="16">
-        <v>0</v>
-      </c>
-      <c r="X15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="s" s="18">
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="22"/>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="12" t="str">
         <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>90</v>
-      </c>
-      <c r="AO15" t="s" s="18">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO15" s="12" t="str">
         <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>90</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="16" ht="25" customHeight="1">
+    <row r="16" ht="25" customHeight="1" spans="1:41">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="17">
+      <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" t="s" s="18">
-        <v>103</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="13">
         <v>634</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="13">
         <v>260</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="13">
         <v>28</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="13">
         <v>60</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="13">
         <v>10000</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="13">
         <v>10800</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="13">
         <v>1200</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="13">
         <v>420</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="13">
         <v>340</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="13">
         <v>100</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="13">
         <v>2100</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="13">
         <v>2100</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="13">
         <v>9999</v>
       </c>
-      <c r="R16" s="16">
-        <v>0</v>
-      </c>
-      <c r="S16" s="19"/>
-      <c r="T16" s="16">
-        <v>0</v>
-      </c>
-      <c r="U16" s="16">
-        <v>0</v>
-      </c>
-      <c r="V16" s="16">
-        <v>0</v>
-      </c>
-      <c r="W16" s="16">
-        <v>0</v>
-      </c>
-      <c r="X16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="s" s="18">
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
+      <c r="S16" s="22"/>
+      <c r="T16" s="13">
+        <v>0</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0</v>
+      </c>
+      <c r="V16" s="13">
+        <v>0</v>
+      </c>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="12" t="str">
         <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>90</v>
-      </c>
-      <c r="AO16" t="s" s="18">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO16" s="12" t="str">
         <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>90</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="17" ht="16.15" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="23"/>
+    <row r="17" ht="16.15" customHeight="1" spans="1:41">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -3592,7 +4057,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/att.xlsx
+++ b/att.xlsx
@@ -13,8 +13,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+取卡牌升级50级数值</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -175,7 +207,7 @@
     <t>暴击倍数加成</t>
   </si>
   <si>
-    <t>治疗</t>
+    <t>治疗强度增加</t>
   </si>
   <si>
     <t>真实伤害</t>
@@ -283,13 +315,13 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>霜之哀伤基础属性</t>
-  </si>
-  <si>
-    <t>梅林基础属性</t>
-  </si>
-  <si>
-    <t>砰砰博士基础属性</t>
+    <t>demo版本防战</t>
+  </si>
+  <si>
+    <t>demo版本狂战</t>
+  </si>
+  <si>
+    <t>demo版本法师</t>
   </si>
   <si>
     <t>0</t>
@@ -298,25 +330,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>洛基基础属性</t>
-  </si>
-  <si>
-    <t>A魂石套装属性</t>
-  </si>
-  <si>
-    <t>B魂石套装属性</t>
-  </si>
-  <si>
-    <t>C魂石套装属性</t>
-  </si>
-  <si>
-    <t>D魂石套装属性</t>
-  </si>
-  <si>
-    <t>E魂石套装属性</t>
-  </si>
-  <si>
-    <t>F魂石套装属性</t>
+    <t>demo版本治疗</t>
   </si>
 </sst>
 </file>
@@ -324,12 +338,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -342,6 +356,67 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -359,37 +434,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,13 +450,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,39 +471,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -466,7 +488,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,21 +503,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,7 +541,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,49 +679,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,13 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,103 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,31 +849,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,22 +882,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,173 +945,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1075,12 +1106,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1100,6 +1134,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2301,10 +2338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2317,8 +2354,8 @@
     <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.35" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.35" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.35" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.35" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.35" style="1" customWidth="1"/>
@@ -2471,85 +2508,85 @@
       <c r="N3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="17" t="s">
+      <c r="AE3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AF3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AG3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="17" t="s">
+      <c r="AH3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AI3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AJ3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AK3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AL3" s="17" t="s">
+      <c r="AL3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AM3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AN3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AO3" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2594,85 +2631,85 @@
       <c r="N4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="S4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="AC4" s="17" t="s">
+      <c r="AC4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AD4" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AE4" s="17" t="s">
+      <c r="AE4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AF4" s="17" t="s">
+      <c r="AF4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="AG4" s="17" t="s">
+      <c r="AG4" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AH4" s="17" t="s">
+      <c r="AH4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AI4" s="17" t="s">
+      <c r="AI4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AJ4" s="17" t="s">
+      <c r="AJ4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AK4" s="17" t="s">
+      <c r="AK4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AL4" s="17" t="s">
+      <c r="AL4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AM4" s="17" t="s">
+      <c r="AM4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AN4" s="17" t="s">
+      <c r="AN4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AO4" s="17" t="s">
+      <c r="AO4" s="18" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2693,33 +2730,33 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:41">
       <c r="A6" s="3"/>
@@ -2760,45 +2797,45 @@
       <c r="N6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="T6" s="20"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17" t="s">
+      <c r="T6" s="21"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AO6" s="17" t="s">
+      <c r="AO6" s="18" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2812,1248 +2849,522 @@
         <v>89</v>
       </c>
       <c r="E7" s="10">
-        <v>101</v>
-      </c>
-      <c r="F7" s="10">
-        <v>50</v>
-      </c>
-      <c r="G7" s="10">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10">
-        <v>30</v>
-      </c>
-      <c r="I7" s="10">
+        <v>440</v>
+      </c>
+      <c r="F7" s="11">
+        <v>636</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>500</v>
+      </c>
+      <c r="I7" s="11">
         <v>10000</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="11">
         <v>3000</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="11">
         <v>500</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="11">
         <v>120</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="11">
         <v>100</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="11">
         <v>100</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="11">
         <v>1200</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="11">
         <v>1200</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="11">
         <v>9999</v>
       </c>
-      <c r="R7" s="10">
-        <v>0</v>
-      </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="13">
-        <v>0</v>
-      </c>
-      <c r="U7" s="10">
-        <v>0</v>
-      </c>
-      <c r="V7" s="10">
-        <v>0</v>
-      </c>
-      <c r="W7" s="10">
-        <v>0</v>
-      </c>
-      <c r="X7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="10">
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22"/>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="11">
         <v>1</v>
       </c>
       <c r="AN7" s="9" t="str">
-        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+        <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AO7" s="9" t="str">
-        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+        <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
         <v>0,0,0,0,0,0,0,0,0,1</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:41">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E8" s="13">
-        <v>12</v>
-      </c>
-      <c r="F8" s="13">
-        <v>11</v>
-      </c>
-      <c r="G8" s="13">
-        <v>5</v>
-      </c>
-      <c r="H8" s="13">
+        <v>550</v>
+      </c>
+      <c r="F8" s="14">
+        <v>530</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>500</v>
+      </c>
+      <c r="I8" s="14">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1200</v>
+      </c>
+      <c r="L8" s="14">
+        <v>50</v>
+      </c>
+      <c r="M8" s="14">
         <v>60</v>
       </c>
-      <c r="I8" s="13">
-        <v>10000</v>
-      </c>
-      <c r="J8" s="13">
-        <v>1500</v>
-      </c>
-      <c r="K8" s="13">
-        <v>1200</v>
-      </c>
-      <c r="L8" s="13">
-        <v>50</v>
-      </c>
-      <c r="M8" s="13">
-        <v>60</v>
-      </c>
-      <c r="N8" s="13">
+      <c r="N8" s="14">
         <v>100</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="14">
         <v>1300</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="14">
         <v>1300</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="14">
         <v>9999</v>
       </c>
-      <c r="R8" s="13">
-        <v>0</v>
-      </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-      <c r="U8" s="13">
-        <v>0</v>
-      </c>
-      <c r="V8" s="13">
-        <v>0</v>
-      </c>
-      <c r="W8" s="13">
-        <v>0</v>
-      </c>
-      <c r="X8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="12" t="str">
-        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+      <c r="S8" s="23"/>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="25" t="str">
+        <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AO8" s="12" t="str">
-        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+      <c r="AO8" s="25" t="str">
+        <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:41">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>3</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="13">
-        <v>11</v>
-      </c>
-      <c r="F9" s="13">
-        <v>15</v>
-      </c>
-      <c r="G9" s="13">
-        <v>7</v>
-      </c>
-      <c r="H9" s="13">
-        <v>53</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="E9" s="11">
+        <v>660</v>
+      </c>
+      <c r="F9" s="14">
+        <v>424</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="11">
+        <v>500</v>
+      </c>
+      <c r="I9" s="14">
         <v>10000</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="14">
         <v>1700</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <v>1000</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="14">
         <v>70</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="14">
         <v>60</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="14">
         <v>100</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="14">
         <v>1400</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="14">
         <v>1400</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="14">
         <v>9999</v>
       </c>
-      <c r="R9" s="13">
-        <v>0</v>
-      </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="13">
-        <v>0</v>
-      </c>
-      <c r="U9" s="13">
-        <v>0</v>
-      </c>
-      <c r="V9" s="13">
-        <v>0</v>
-      </c>
-      <c r="W9" s="13">
-        <v>0</v>
-      </c>
-      <c r="X9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="23" t="s">
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="23"/>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <v>0</v>
+      </c>
+      <c r="W9" s="14">
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AE9" s="23" t="s">
+      <c r="AE9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AF9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AG9" s="23" t="s">
+      <c r="AG9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AH9" s="23" t="s">
+      <c r="AH9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AI9" s="23" t="s">
+      <c r="AI9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AJ9" s="23" t="s">
+      <c r="AJ9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AK9" s="23" t="s">
+      <c r="AK9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AL9" s="23" t="s">
+      <c r="AL9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AM9" s="23" t="s">
+      <c r="AM9" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AN9" s="12" t="str">
-        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+      <c r="AN9" s="25" t="str">
+        <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AO9" s="12" t="str">
-        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+      <c r="AO9" s="25" t="str">
+        <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
         <v>0,0,0,0,0,0,0,0,0,3</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:41">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="11">
+      <c r="C10" s="12">
         <v>4</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
+        <v>550</v>
+      </c>
+      <c r="F10" s="14">
+        <v>424</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>500</v>
+      </c>
+      <c r="I10" s="14">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="14">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="14">
+        <v>500</v>
+      </c>
+      <c r="L10" s="14">
+        <v>120</v>
+      </c>
+      <c r="M10" s="14">
         <v>100</v>
       </c>
-      <c r="F10" s="13">
-        <v>50</v>
-      </c>
-      <c r="G10" s="13">
-        <v>10</v>
-      </c>
-      <c r="H10" s="13">
-        <v>30</v>
-      </c>
-      <c r="I10" s="13">
-        <v>10000</v>
-      </c>
-      <c r="J10" s="13">
-        <v>3000</v>
-      </c>
-      <c r="K10" s="13">
-        <v>500</v>
-      </c>
-      <c r="L10" s="13">
-        <v>120</v>
-      </c>
-      <c r="M10" s="13">
+      <c r="N10" s="14">
         <v>100</v>
       </c>
-      <c r="N10" s="13">
-        <v>100</v>
-      </c>
-      <c r="O10" s="13">
+      <c r="O10" s="14">
         <v>1500</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="14">
         <v>1500</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="14">
         <v>9999</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="14">
         <v>1000</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="13">
-        <v>0</v>
-      </c>
-      <c r="U10" s="13">
-        <v>0</v>
-      </c>
-      <c r="V10" s="13">
-        <v>0</v>
-      </c>
-      <c r="W10" s="13">
-        <v>0</v>
-      </c>
-      <c r="X10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="12" t="str">
-        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
+      <c r="S10" s="23"/>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="25" t="str">
+        <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AO10" s="12" t="str">
-        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
+      <c r="AO10" s="25" t="str">
+        <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="11" ht="25" customHeight="1" spans="1:41">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="11">
-        <v>5</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="13">
-        <v>189</v>
-      </c>
-      <c r="F11" s="13">
-        <v>85</v>
-      </c>
-      <c r="G11" s="13">
-        <v>13</v>
-      </c>
-      <c r="H11" s="13">
-        <v>30</v>
-      </c>
-      <c r="I11" s="13">
-        <v>10000</v>
-      </c>
-      <c r="J11" s="13">
-        <v>4300</v>
-      </c>
-      <c r="K11" s="13">
-        <v>500</v>
-      </c>
-      <c r="L11" s="13">
-        <v>170</v>
-      </c>
-      <c r="M11" s="13">
-        <v>140</v>
-      </c>
-      <c r="N11" s="13">
-        <v>100</v>
-      </c>
-      <c r="O11" s="13">
-        <v>1600</v>
-      </c>
-      <c r="P11" s="13">
-        <v>1600</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>9999</v>
-      </c>
-      <c r="R11" s="13">
-        <v>0</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="13">
-        <v>0</v>
-      </c>
-      <c r="U11" s="13">
-        <v>0</v>
-      </c>
-      <c r="V11" s="13">
-        <v>0</v>
-      </c>
-      <c r="W11" s="13">
-        <v>0</v>
-      </c>
-      <c r="X11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="12" t="str">
-        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO11" s="12" t="str">
-        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="12" ht="25" customHeight="1" spans="1:41">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="11">
-        <v>6</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="13">
-        <v>278</v>
-      </c>
-      <c r="F12" s="13">
-        <v>120</v>
-      </c>
-      <c r="G12" s="13">
-        <v>16</v>
-      </c>
-      <c r="H12" s="13">
-        <v>60</v>
-      </c>
-      <c r="I12" s="13">
-        <v>10000</v>
-      </c>
-      <c r="J12" s="13">
-        <v>5600</v>
-      </c>
-      <c r="K12" s="13">
-        <v>1200</v>
-      </c>
-      <c r="L12" s="13">
-        <v>220</v>
-      </c>
-      <c r="M12" s="13">
-        <v>180</v>
-      </c>
-      <c r="N12" s="13">
-        <v>100</v>
-      </c>
-      <c r="O12" s="13">
-        <v>1700</v>
-      </c>
-      <c r="P12" s="13">
-        <v>1700</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>9999</v>
-      </c>
-      <c r="R12" s="13">
-        <v>0</v>
-      </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="13">
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <v>0</v>
-      </c>
-      <c r="W12" s="13">
-        <v>0</v>
-      </c>
-      <c r="X12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="12" t="str">
-        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO12" s="12" t="str">
-        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="13" ht="25" customHeight="1" spans="1:41">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="11">
-        <v>7</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="13">
-        <v>367</v>
-      </c>
-      <c r="F13" s="13">
-        <v>155</v>
-      </c>
-      <c r="G13" s="13">
-        <v>19</v>
-      </c>
-      <c r="H13" s="13">
-        <v>53</v>
-      </c>
-      <c r="I13" s="13">
-        <v>10000</v>
-      </c>
-      <c r="J13" s="13">
-        <v>6900</v>
-      </c>
-      <c r="K13" s="13">
-        <v>1000</v>
-      </c>
-      <c r="L13" s="13">
-        <v>270</v>
-      </c>
-      <c r="M13" s="13">
-        <v>220</v>
-      </c>
-      <c r="N13" s="13">
-        <v>100</v>
-      </c>
-      <c r="O13" s="13">
-        <v>1800</v>
-      </c>
-      <c r="P13" s="13">
-        <v>1800</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>9999</v>
-      </c>
-      <c r="R13" s="13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="22"/>
-      <c r="T13" s="13">
-        <v>0</v>
-      </c>
-      <c r="U13" s="13">
-        <v>0</v>
-      </c>
-      <c r="V13" s="13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="13">
-        <v>0</v>
-      </c>
-      <c r="X13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="12" t="str">
-        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO13" s="12" t="str">
-        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="14" ht="25" customHeight="1" spans="1:41">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="11">
-        <v>8</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="13">
-        <v>456</v>
-      </c>
-      <c r="F14" s="13">
-        <v>190</v>
-      </c>
-      <c r="G14" s="13">
-        <v>22</v>
-      </c>
-      <c r="H14" s="13">
-        <v>30</v>
-      </c>
-      <c r="I14" s="13">
-        <v>10000</v>
-      </c>
-      <c r="J14" s="13">
-        <v>8200</v>
-      </c>
-      <c r="K14" s="13">
-        <v>500</v>
-      </c>
-      <c r="L14" s="13">
-        <v>320</v>
-      </c>
-      <c r="M14" s="13">
-        <v>260</v>
-      </c>
-      <c r="N14" s="13">
-        <v>100</v>
-      </c>
-      <c r="O14" s="13">
-        <v>1900</v>
-      </c>
-      <c r="P14" s="13">
-        <v>1900</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>9999</v>
-      </c>
-      <c r="R14" s="13">
-        <v>1000</v>
-      </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="13">
-        <v>0</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
-      </c>
-      <c r="V14" s="13">
-        <v>0</v>
-      </c>
-      <c r="W14" s="13">
-        <v>0</v>
-      </c>
-      <c r="X14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="12" t="str">
-        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO14" s="12" t="str">
-        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="15" ht="25" customHeight="1" spans="1:41">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="11">
-        <v>9</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="13">
-        <v>545</v>
-      </c>
-      <c r="F15" s="13">
-        <v>225</v>
-      </c>
-      <c r="G15" s="13">
-        <v>25</v>
-      </c>
-      <c r="H15" s="13">
-        <v>30</v>
-      </c>
-      <c r="I15" s="13">
-        <v>10000</v>
-      </c>
-      <c r="J15" s="13">
-        <v>9500</v>
-      </c>
-      <c r="K15" s="13">
-        <v>500</v>
-      </c>
-      <c r="L15" s="13">
-        <v>370</v>
-      </c>
-      <c r="M15" s="13">
-        <v>300</v>
-      </c>
-      <c r="N15" s="13">
-        <v>100</v>
-      </c>
-      <c r="O15" s="13">
-        <v>2000</v>
-      </c>
-      <c r="P15" s="13">
-        <v>2000</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>9999</v>
-      </c>
-      <c r="R15" s="13">
-        <v>0</v>
-      </c>
-      <c r="S15" s="22"/>
-      <c r="T15" s="13">
-        <v>0</v>
-      </c>
-      <c r="U15" s="13">
-        <v>0</v>
-      </c>
-      <c r="V15" s="13">
-        <v>0</v>
-      </c>
-      <c r="W15" s="13">
-        <v>0</v>
-      </c>
-      <c r="X15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="12" t="str">
-        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO15" s="12" t="str">
-        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="16" ht="25" customHeight="1" spans="1:41">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="11">
-        <v>10</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="13">
-        <v>634</v>
-      </c>
-      <c r="F16" s="13">
-        <v>260</v>
-      </c>
-      <c r="G16" s="13">
-        <v>28</v>
-      </c>
-      <c r="H16" s="13">
-        <v>60</v>
-      </c>
-      <c r="I16" s="13">
-        <v>10000</v>
-      </c>
-      <c r="J16" s="13">
-        <v>10800</v>
-      </c>
-      <c r="K16" s="13">
-        <v>1200</v>
-      </c>
-      <c r="L16" s="13">
-        <v>420</v>
-      </c>
-      <c r="M16" s="13">
-        <v>340</v>
-      </c>
-      <c r="N16" s="13">
-        <v>100</v>
-      </c>
-      <c r="O16" s="13">
-        <v>2100</v>
-      </c>
-      <c r="P16" s="13">
-        <v>2100</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>9999</v>
-      </c>
-      <c r="R16" s="13">
-        <v>0</v>
-      </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="13">
-        <v>0</v>
-      </c>
-      <c r="U16" s="13">
-        <v>0</v>
-      </c>
-      <c r="V16" s="13">
-        <v>0</v>
-      </c>
-      <c r="W16" s="13">
-        <v>0</v>
-      </c>
-      <c r="X16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="12" t="str">
-        <f>T1:T17&amp;","&amp;U1:U17&amp;","&amp;V1:V17&amp;","&amp;W1:W17&amp;","&amp;X1:X17&amp;","&amp;Y1:Y17&amp;","&amp;Z1:Z17&amp;","&amp;AA1:AA17&amp;","&amp;AB1:AB17&amp;","&amp;AC1:AC17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO16" s="12" t="str">
-        <f>AD1:AD17&amp;","&amp;AE1:AE17&amp;","&amp;AF1:AF17&amp;","&amp;AG1:AG17&amp;","&amp;AH1:AH17&amp;","&amp;AI1:AI17&amp;","&amp;AJ1:AJ17&amp;","&amp;AK1:AK17&amp;","&amp;AL1:AL17&amp;","&amp;AM1:AM17</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="17" ht="16.15" customHeight="1" spans="1:41">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
+    <row r="11" ht="16.15" customHeight="1" spans="1:41">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4061,5 +3372,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>